--- a/capiq_data/in_process_data/IQ303591.xlsx
+++ b/capiq_data/in_process_data/IQ303591.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94737CAC-B3F0-4150-806F-D1A4BC45E8D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE38E047-62AC-4739-B995-01BD3F832471}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"4bda53c5-a395-4f07-adf4-4443ab7db00a"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"9c74948b-509e-488b-a75c-1bac6cc74f17"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
+  </si>
+  <si>
+    <t>FQ22011</t>
   </si>
   <si>
     <t>FQ32011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40574</v>
+        <v>36922</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>131.995</v>
+        <v>7.0389999999999997</v>
       </c>
       <c r="D2">
-        <v>1312.3510000000001</v>
+        <v>153.62799999999999</v>
       </c>
       <c r="E2">
-        <v>289.548</v>
+        <v>52.459000000000003</v>
       </c>
       <c r="F2">
-        <v>491.26499999999999</v>
+        <v>52.442999999999998</v>
       </c>
       <c r="G2">
-        <v>1689.06</v>
+        <v>219.61199999999999</v>
       </c>
       <c r="H2">
-        <v>8358.7479999999996</v>
+        <v>463.89800000000002</v>
       </c>
       <c r="I2">
-        <v>174.88200000000001</v>
+        <v>27.626000000000001</v>
       </c>
       <c r="J2">
-        <v>1300</v>
+        <v>135</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>422.75700000000001</v>
+        <v>64.641999999999996</v>
       </c>
       <c r="O2">
-        <v>2995.4470000000001</v>
+        <v>218.63300000000001</v>
       </c>
       <c r="P2">
-        <v>1300</v>
+        <v>135</v>
       </c>
       <c r="Q2">
-        <v>62.12</v>
+        <v>21.581</v>
       </c>
       <c r="R2">
-        <v>40574</v>
+        <v>36922</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>5363.3010000000004</v>
+        <v>245.26499999999999</v>
       </c>
       <c r="U2">
-        <v>549.58299999999997</v>
+        <v>30.788</v>
       </c>
       <c r="V2">
-        <v>374.834</v>
+        <v>30.021999999999998</v>
       </c>
       <c r="W2">
-        <v>-47.731999999999999</v>
+        <v>-3.8370000000000002</v>
       </c>
       <c r="X2">
-        <v>-279.52800000000002</v>
+        <v>-2.4649999999999999</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>131.995</v>
+        <v>7.0389999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40663</v>
+        <v>37011</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>94.88</v>
+        <v>5.3920000000000003</v>
       </c>
       <c r="D3">
-        <v>1187.1669999999999</v>
+        <v>161.44900000000001</v>
       </c>
       <c r="E3">
-        <v>344.41</v>
+        <v>55.985999999999997</v>
       </c>
       <c r="F3">
-        <v>436.71100000000001</v>
+        <v>44.555</v>
       </c>
       <c r="G3">
-        <v>1636.999</v>
+        <v>235.24199999999999</v>
       </c>
       <c r="H3">
-        <v>8324.5849999999991</v>
+        <v>479.10399999999998</v>
       </c>
       <c r="I3">
-        <v>234.916</v>
+        <v>29.966999999999999</v>
       </c>
       <c r="J3">
-        <v>1305.423</v>
+        <v>135</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -855,81 +975,81 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>482.67599999999999</v>
+        <v>68.061999999999998</v>
       </c>
       <c r="O3">
-        <v>3032.2220000000002</v>
+        <v>228.31899999999999</v>
       </c>
       <c r="P3">
-        <v>1305.423</v>
+        <v>135</v>
       </c>
       <c r="Q3">
-        <v>-229.738</v>
+        <v>20.337</v>
       </c>
       <c r="R3">
-        <v>40663</v>
+        <v>37011</v>
       </c>
       <c r="S3">
-        <v>4500</v>
+        <v>2250</v>
       </c>
       <c r="T3">
-        <v>5292.3630000000003</v>
+        <v>250.785</v>
       </c>
       <c r="U3">
-        <v>319.84500000000003</v>
+        <v>51.125</v>
       </c>
       <c r="V3">
-        <v>-2.8180000000000001</v>
+        <v>29.225999999999999</v>
       </c>
       <c r="W3">
-        <v>-50.959000000000003</v>
+        <v>-3.8519999999999999</v>
       </c>
       <c r="X3">
-        <v>-184.98699999999999</v>
+        <v>-2.2759999999999998</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>94.88</v>
+        <v>5.3920000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40755</v>
+        <v>37103</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>111.523</v>
+        <v>8.5470000000000006</v>
       </c>
       <c r="D4">
-        <v>1188.883</v>
+        <v>169.792</v>
       </c>
       <c r="E4">
-        <v>350.29300000000001</v>
+        <v>54.405000000000001</v>
       </c>
       <c r="F4">
-        <v>441.51</v>
+        <v>57.18</v>
       </c>
       <c r="G4">
-        <v>1739.7719999999999</v>
+        <v>246.68100000000001</v>
       </c>
       <c r="H4">
-        <v>8782.0229999999992</v>
+        <v>486.15899999999999</v>
       </c>
       <c r="I4">
-        <v>288.08199999999999</v>
+        <v>34.110999999999997</v>
       </c>
       <c r="J4">
-        <v>1318.489</v>
+        <v>135</v>
       </c>
       <c r="K4">
-        <v>306.7</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>875.23400000000004</v>
+        <v>79.923000000000002</v>
       </c>
       <c r="O4">
-        <v>3433.7689999999998</v>
+        <v>236.095</v>
       </c>
       <c r="P4">
-        <v>1625.1890000000001</v>
+        <v>135</v>
       </c>
       <c r="Q4">
-        <v>-217.37</v>
+        <v>-0.13300000000000001</v>
       </c>
       <c r="R4">
-        <v>40755</v>
+        <v>37103</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>5348.2539999999999</v>
+        <v>250.06399999999999</v>
       </c>
       <c r="U4">
-        <v>102.47499999999999</v>
+        <v>50.991999999999997</v>
       </c>
       <c r="V4">
-        <v>-58.238</v>
+        <v>9.7940000000000005</v>
       </c>
       <c r="W4">
-        <v>-50.158999999999999</v>
+        <v>-3.8650000000000002</v>
       </c>
       <c r="X4">
-        <v>253.93199999999999</v>
+        <v>-4.0759999999999996</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>18.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>111.523</v>
+        <v>8.5470000000000006</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40847</v>
+        <v>37195</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>127.247</v>
+        <v>7.7039999999999997</v>
       </c>
       <c r="D5">
-        <v>1513.905</v>
+        <v>172.84399999999999</v>
       </c>
       <c r="E5">
-        <v>462.16899999999998</v>
+        <v>60.627000000000002</v>
       </c>
       <c r="F5">
-        <v>511.38799999999998</v>
+        <v>55.82</v>
       </c>
       <c r="G5">
-        <v>2193.7069999999999</v>
+        <v>240.642</v>
       </c>
       <c r="H5">
-        <v>9215.42</v>
+        <v>488.40699999999998</v>
       </c>
       <c r="I5">
-        <v>260.65300000000002</v>
+        <v>34.110999999999997</v>
       </c>
       <c r="J5">
-        <v>2071.8519999999999</v>
+        <v>135</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>544.92100000000005</v>
+        <v>79.028999999999996</v>
       </c>
       <c r="O5">
-        <v>3852.0709999999999</v>
+        <v>235.05</v>
       </c>
       <c r="P5">
-        <v>2071.8519999999999</v>
+        <v>135</v>
       </c>
       <c r="Q5">
-        <v>393.81299999999999</v>
+        <v>-17.774000000000001</v>
       </c>
       <c r="R5">
-        <v>40847</v>
+        <v>37195</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>5363.3490000000002</v>
+        <v>253.357</v>
       </c>
       <c r="U5">
-        <v>496.28800000000001</v>
+        <v>33.218000000000004</v>
       </c>
       <c r="V5">
-        <v>118.172</v>
+        <v>-2.8959999999999999</v>
       </c>
       <c r="W5">
-        <v>-54.665999999999997</v>
+        <v>-3.875</v>
       </c>
       <c r="X5">
-        <v>340.62799999999999</v>
+        <v>-2.9319999999999999</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,39 +1180,39 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>127.247</v>
+        <v>7.7039999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40939</v>
+        <v>37287</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>116.84399999999999</v>
+        <v>7.9470000000000001</v>
       </c>
       <c r="D6">
-        <v>1467.6410000000001</v>
+        <v>168.392</v>
       </c>
       <c r="E6">
-        <v>364.72399999999999</v>
+        <v>54.423999999999999</v>
       </c>
       <c r="F6">
-        <v>478.81599999999997</v>
+        <v>55.000999999999998</v>
       </c>
       <c r="G6">
-        <v>1805.9929999999999</v>
+        <v>259.95600000000002</v>
       </c>
       <c r="H6">
-        <v>9235.8739999999998</v>
+        <v>503.3</v>
       </c>
       <c r="I6">
-        <v>232.41499999999999</v>
+        <v>30.58</v>
       </c>
       <c r="J6">
-        <v>2071.2020000000002</v>
+        <v>135</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>494.33499999999998</v>
+        <v>76.933000000000007</v>
       </c>
       <c r="O6">
-        <v>3851.7339999999999</v>
+        <v>235.14500000000001</v>
       </c>
       <c r="P6">
-        <v>2071.2020000000002</v>
+        <v>135</v>
       </c>
       <c r="Q6">
-        <v>-125.86</v>
+        <v>34.222000000000001</v>
       </c>
       <c r="R6">
-        <v>40939</v>
+        <v>37287</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>5384.14</v>
+        <v>268.15499999999997</v>
       </c>
       <c r="U6">
-        <v>370.428</v>
+        <v>67.44</v>
       </c>
       <c r="V6">
-        <v>409.30500000000001</v>
+        <v>31.026</v>
       </c>
       <c r="W6">
-        <v>-54.564</v>
+        <v>-3.883</v>
       </c>
       <c r="X6">
-        <v>-97.106999999999999</v>
+        <v>4.0750000000000002</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,39 +1263,39 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>116.84399999999999</v>
+        <v>7.9470000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>41029</v>
+        <v>37376</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>104.086</v>
+        <v>6.6529999999999996</v>
       </c>
       <c r="D7">
-        <v>1355.3710000000001</v>
+        <v>176.12</v>
       </c>
       <c r="E7">
-        <v>347.5</v>
+        <v>57.371000000000002</v>
       </c>
       <c r="F7">
-        <v>456.68599999999998</v>
+        <v>56.99</v>
       </c>
       <c r="G7">
-        <v>1643.5</v>
+        <v>279.81299999999999</v>
       </c>
       <c r="H7">
-        <v>9115.2000000000007</v>
+        <v>524.89200000000005</v>
       </c>
       <c r="I7">
-        <v>274.7</v>
+        <v>32.39</v>
       </c>
       <c r="J7">
-        <v>2020.5</v>
+        <v>135</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1187,78 +1307,78 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>616.9</v>
+        <v>80.430999999999997</v>
       </c>
       <c r="O7">
-        <v>3951.8</v>
+        <v>244.74799999999999</v>
       </c>
       <c r="P7">
-        <v>2070.5</v>
+        <v>135</v>
       </c>
       <c r="Q7">
-        <v>-140.68299999999999</v>
+        <v>24.474</v>
       </c>
       <c r="R7">
-        <v>41029</v>
+        <v>37376</v>
       </c>
       <c r="S7">
-        <v>4850</v>
+        <v>2300</v>
       </c>
       <c r="T7">
-        <v>5163.3999999999996</v>
+        <v>280.14400000000001</v>
       </c>
       <c r="U7">
-        <v>229.7</v>
+        <v>91.914000000000001</v>
       </c>
       <c r="V7">
-        <v>261.661</v>
+        <v>29.076000000000001</v>
       </c>
       <c r="W7">
-        <v>-54.311</v>
+        <v>-3.9449999999999998</v>
       </c>
       <c r="X7">
-        <v>-277.85300000000001</v>
+        <v>-2.875</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-35.9</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>104.086</v>
+        <v>6.6529999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41121</v>
+        <v>37468</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>110.9</v>
+        <v>16.016999999999999</v>
       </c>
       <c r="D8">
-        <v>1369.7</v>
+        <v>274.93599999999998</v>
       </c>
       <c r="E8">
-        <v>390.92399999999998</v>
+        <v>111.443</v>
       </c>
       <c r="F8">
-        <v>473.8</v>
+        <v>92.352000000000004</v>
       </c>
       <c r="G8">
-        <v>1800.328</v>
+        <v>398.01100000000002</v>
       </c>
       <c r="H8">
-        <v>9262.11</v>
+        <v>1537.26</v>
       </c>
       <c r="I8">
-        <v>283.20100000000002</v>
+        <v>71.763000000000005</v>
       </c>
       <c r="J8">
-        <v>2019.875</v>
+        <v>135</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>710.46900000000005</v>
+        <v>166.02199999999999</v>
       </c>
       <c r="O8">
-        <v>4038.6570000000002</v>
+        <v>467.988</v>
       </c>
       <c r="P8">
-        <v>2069.875</v>
+        <v>135</v>
       </c>
       <c r="Q8">
-        <v>81.8</v>
+        <v>-17.818999999999999</v>
       </c>
       <c r="R8">
-        <v>41121</v>
+        <v>37468</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>5223.4530000000004</v>
+        <v>1069.2719999999999</v>
       </c>
       <c r="U8">
-        <v>311.47399999999999</v>
+        <v>74.094999999999999</v>
       </c>
       <c r="V8">
-        <v>176.7</v>
+        <v>2.7280000000000002</v>
       </c>
       <c r="W8">
-        <v>-52.8</v>
+        <v>-3.9390000000000001</v>
       </c>
       <c r="X8">
-        <v>-64.599999999999994</v>
+        <v>-3.7280000000000002</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,39 +1429,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>110.9</v>
+        <v>16.016999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41213</v>
+        <v>37560</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>148.80000000000001</v>
+        <v>29.087</v>
       </c>
       <c r="D9">
-        <v>1628.7</v>
+        <v>366.97500000000002</v>
       </c>
       <c r="E9">
-        <v>469.36700000000002</v>
+        <v>120.191</v>
       </c>
       <c r="F9">
-        <v>544.29999999999995</v>
+        <v>126.41200000000001</v>
       </c>
       <c r="G9">
-        <v>1736.0619999999999</v>
+        <v>425.185</v>
       </c>
       <c r="H9">
-        <v>9188.7530000000006</v>
+        <v>1564.9739999999999</v>
       </c>
       <c r="I9">
-        <v>290.05399999999997</v>
+        <v>67.561999999999998</v>
       </c>
       <c r="J9">
-        <v>2019.1959999999999</v>
+        <v>135</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>706.06600000000003</v>
+        <v>171.47300000000001</v>
       </c>
       <c r="O9">
-        <v>4036.0059999999999</v>
+        <v>474.63</v>
       </c>
       <c r="P9">
-        <v>2069.1959999999999</v>
+        <v>135</v>
       </c>
       <c r="Q9">
-        <v>-107.9</v>
+        <v>24.73</v>
       </c>
       <c r="R9">
-        <v>41213</v>
+        <v>37560</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>5152.7470000000003</v>
+        <v>1090.3440000000001</v>
       </c>
       <c r="U9">
-        <v>203.55500000000001</v>
+        <v>98.825000000000003</v>
       </c>
       <c r="V9">
-        <v>182.9</v>
+        <v>39.274000000000001</v>
       </c>
       <c r="W9">
-        <v>-57.4</v>
+        <v>-9.1310000000000002</v>
       </c>
       <c r="X9">
-        <v>-227.7</v>
+        <v>-7.234</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,39 +1512,39 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>148.80000000000001</v>
+        <v>29.087</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41305</v>
+        <v>37652</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>154.19999999999999</v>
+        <v>27.992999999999999</v>
       </c>
       <c r="D10">
-        <v>1559.6</v>
+        <v>340.82600000000002</v>
       </c>
       <c r="E10">
-        <v>360.20499999999998</v>
+        <v>93.852999999999994</v>
       </c>
       <c r="F10">
-        <v>537.4</v>
+        <v>122.931</v>
       </c>
       <c r="G10">
-        <v>1745.9449999999999</v>
+        <v>437.19799999999998</v>
       </c>
       <c r="H10">
-        <v>9184.4539999999997</v>
+        <v>1575.0150000000001</v>
       </c>
       <c r="I10">
-        <v>251.584</v>
+        <v>48.832999999999998</v>
       </c>
       <c r="J10">
-        <v>2018.508</v>
+        <v>135</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>593.46299999999997</v>
+        <v>164.351</v>
       </c>
       <c r="O10">
-        <v>3924.2179999999998</v>
+        <v>462.04899999999998</v>
       </c>
       <c r="P10">
-        <v>2068.5079999999998</v>
+        <v>135</v>
       </c>
       <c r="Q10">
-        <v>235.2</v>
+        <v>52.006</v>
       </c>
       <c r="R10">
-        <v>41305</v>
+        <v>37652</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>5260.2359999999999</v>
+        <v>1112.9659999999999</v>
       </c>
       <c r="U10">
-        <v>438.81400000000002</v>
+        <v>150.83099999999999</v>
       </c>
       <c r="V10">
-        <v>324</v>
+        <v>70.22</v>
       </c>
       <c r="W10">
-        <v>-56.3</v>
+        <v>-10.625999999999999</v>
       </c>
       <c r="X10">
-        <v>-54.9</v>
+        <v>-7.5380000000000003</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,39 +1595,39 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>154.19999999999999</v>
+        <v>27.992999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41394</v>
+        <v>37741</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>130.30000000000001</v>
+        <v>23.245000000000001</v>
       </c>
       <c r="D11">
-        <v>1339.7</v>
+        <v>329.00700000000001</v>
       </c>
       <c r="E11">
-        <v>313.7</v>
+        <v>101.364</v>
       </c>
       <c r="F11">
-        <v>483.6</v>
+        <v>115.642</v>
       </c>
       <c r="G11">
-        <v>1595.2</v>
+        <v>466.66</v>
       </c>
       <c r="H11">
-        <v>9031.7999999999993</v>
+        <v>1615.4069999999999</v>
       </c>
       <c r="I11">
-        <v>285.8</v>
+        <v>68.703999999999994</v>
       </c>
       <c r="J11">
-        <v>1967.8</v>
+        <v>135</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,37 +1639,37 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>596.79999999999995</v>
+        <v>167.274</v>
       </c>
       <c r="O11">
-        <v>3883</v>
+        <v>491.23599999999999</v>
       </c>
       <c r="P11">
-        <v>2017.8</v>
+        <v>135</v>
       </c>
       <c r="Q11">
-        <v>-182.4</v>
+        <v>30.393999999999998</v>
       </c>
       <c r="R11">
-        <v>41394</v>
+        <v>37741</v>
       </c>
       <c r="S11">
-        <v>4875</v>
+        <v>2775</v>
       </c>
       <c r="T11">
-        <v>5148.8</v>
+        <v>1124.171</v>
       </c>
       <c r="U11">
-        <v>256.39999999999998</v>
+        <v>181.22499999999999</v>
       </c>
       <c r="V11">
-        <v>172.2</v>
+        <v>55.378</v>
       </c>
       <c r="W11">
-        <v>-56.3</v>
+        <v>-9.907</v>
       </c>
       <c r="X11">
-        <v>-293.8</v>
+        <v>-9.9190000000000005</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,42 +1678,42 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>130.30000000000001</v>
+        <v>23.245000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41486</v>
+        <v>37833</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>126.6</v>
+        <v>25.785</v>
       </c>
       <c r="D12">
-        <v>1350.9</v>
+        <v>339.17599999999999</v>
       </c>
       <c r="E12">
-        <v>357.3</v>
+        <v>103.253</v>
       </c>
       <c r="F12">
-        <v>494.3</v>
+        <v>120.81399999999999</v>
       </c>
       <c r="G12">
-        <v>1629.9</v>
+        <v>480.49400000000003</v>
       </c>
       <c r="H12">
-        <v>9033.9</v>
+        <v>1640.9290000000001</v>
       </c>
       <c r="I12">
-        <v>264.8</v>
+        <v>70.063999999999993</v>
       </c>
       <c r="J12">
-        <v>1867.1</v>
+        <v>135</v>
       </c>
       <c r="K12">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>803.1</v>
+        <v>181.227</v>
       </c>
       <c r="O12">
-        <v>3958.8</v>
+        <v>501.39800000000002</v>
       </c>
       <c r="P12">
-        <v>2102.1</v>
+        <v>135</v>
       </c>
       <c r="Q12">
-        <v>-98.9</v>
+        <v>-15.808</v>
       </c>
       <c r="R12">
-        <v>41486</v>
+        <v>37833</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>5075.1000000000004</v>
+        <v>1139.5309999999999</v>
       </c>
       <c r="U12">
-        <v>157.5</v>
+        <v>167.46799999999999</v>
       </c>
       <c r="V12">
-        <v>82.1</v>
+        <v>17.356000000000002</v>
       </c>
       <c r="W12">
-        <v>-55.4</v>
+        <v>-11.388</v>
       </c>
       <c r="X12">
-        <v>-135.6</v>
+        <v>-10.182</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,42 +1761,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>126.6</v>
+        <v>25.785</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41578</v>
+        <v>37925</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>153.4</v>
+        <v>32.067</v>
       </c>
       <c r="D13">
-        <v>1559.9</v>
+        <v>374.20299999999997</v>
       </c>
       <c r="E13">
-        <v>464.2</v>
+        <v>112.961</v>
       </c>
       <c r="F13">
-        <v>554.9</v>
+        <v>134.77600000000001</v>
       </c>
       <c r="G13">
-        <v>1762.3</v>
+        <v>426.43</v>
       </c>
       <c r="H13">
-        <v>9246</v>
+        <v>1657.7670000000001</v>
       </c>
       <c r="I13">
-        <v>261.60000000000002</v>
+        <v>62.209000000000003</v>
       </c>
       <c r="J13">
-        <v>1884.6</v>
+        <v>135</v>
       </c>
       <c r="K13">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>896</v>
+        <v>164.267</v>
       </c>
       <c r="O13">
-        <v>4078.1</v>
+        <v>486.89</v>
       </c>
       <c r="P13">
-        <v>2241.6</v>
+        <v>135</v>
       </c>
       <c r="Q13">
-        <v>-7</v>
+        <v>-97.406999999999996</v>
       </c>
       <c r="R13">
-        <v>41578</v>
+        <v>37925</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>5167.8999999999996</v>
+        <v>1170.877</v>
       </c>
       <c r="U13">
-        <v>150.5</v>
+        <v>70.150999999999996</v>
       </c>
       <c r="V13">
-        <v>85.9</v>
+        <v>11.881</v>
       </c>
       <c r="W13">
-        <v>-61</v>
+        <v>-11.433999999999999</v>
       </c>
       <c r="X13">
-        <v>59.7</v>
+        <v>-10.132999999999999</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>-75.843999999999994</v>
       </c>
       <c r="AA13">
-        <v>153.4</v>
+        <v>32.067</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41670</v>
+        <v>38017</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>166.7</v>
+        <v>31.318000000000001</v>
       </c>
       <c r="D14">
-        <v>1465.5</v>
+        <v>343.78800000000001</v>
       </c>
       <c r="E14">
-        <v>365.2</v>
+        <v>91.525000000000006</v>
       </c>
       <c r="F14">
-        <v>546.79999999999995</v>
+        <v>126.95099999999999</v>
       </c>
       <c r="G14">
-        <v>1508.1</v>
+        <v>444.01</v>
       </c>
       <c r="H14">
-        <v>8989</v>
+        <v>1677.11</v>
       </c>
       <c r="I14">
-        <v>220.2</v>
+        <v>56.48</v>
       </c>
       <c r="J14">
-        <v>1879.4</v>
+        <v>135</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,81 +1888,81 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>608.29999999999995</v>
+        <v>157.21</v>
       </c>
       <c r="O14">
-        <v>3784.2</v>
+        <v>480.83499999999998</v>
       </c>
       <c r="P14">
-        <v>2029.4</v>
+        <v>135</v>
       </c>
       <c r="Q14">
-        <v>18.100000000000001</v>
+        <v>50.776000000000003</v>
       </c>
       <c r="R14">
-        <v>41670</v>
+        <v>38017</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>5204.8</v>
+        <v>1196.2750000000001</v>
       </c>
       <c r="U14">
-        <v>168.6</v>
+        <v>118.32</v>
       </c>
       <c r="V14">
-        <v>421.1</v>
+        <v>70.942999999999998</v>
       </c>
       <c r="W14">
-        <v>-61</v>
+        <v>-11.444000000000001</v>
       </c>
       <c r="X14">
-        <v>-329.3</v>
+        <v>-10.051</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>10.497</v>
       </c>
       <c r="AA14">
-        <v>166.7</v>
+        <v>31.318000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41759</v>
+        <v>38107</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>118.5</v>
+        <v>22.18</v>
       </c>
       <c r="D15">
-        <v>1234.3</v>
+        <v>312.38900000000001</v>
       </c>
       <c r="E15">
-        <v>309.39999999999998</v>
+        <v>93.617000000000004</v>
       </c>
       <c r="F15">
-        <v>444.6</v>
+        <v>108.524</v>
       </c>
       <c r="G15">
-        <v>1539.1</v>
+        <v>450.851</v>
       </c>
       <c r="H15">
-        <v>9060.2000000000007</v>
+        <v>1684.125</v>
       </c>
       <c r="I15">
-        <v>289.2</v>
+        <v>62.231999999999999</v>
       </c>
       <c r="J15">
-        <v>1876.2</v>
+        <v>135</v>
       </c>
       <c r="K15">
-        <v>243.2</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1851,164 +1971,164 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>885.8</v>
+        <v>175.22</v>
       </c>
       <c r="O15">
-        <v>4030.6</v>
+        <v>473.43200000000002</v>
       </c>
       <c r="P15">
-        <v>2219.4</v>
+        <v>135</v>
       </c>
       <c r="Q15">
-        <v>-15.1</v>
+        <v>-3.0219999999999998</v>
       </c>
       <c r="R15">
-        <v>41759</v>
+        <v>38107</v>
       </c>
       <c r="S15">
-        <v>4775</v>
+        <v>2950</v>
       </c>
       <c r="T15">
-        <v>5029.6000000000004</v>
+        <v>1210.693</v>
       </c>
       <c r="U15">
-        <v>153.5</v>
+        <v>104.551</v>
       </c>
       <c r="V15">
-        <v>266.89999999999998</v>
+        <v>34.563000000000002</v>
       </c>
       <c r="W15">
-        <v>-60.6</v>
+        <v>-11.458</v>
       </c>
       <c r="X15">
-        <v>-170.3</v>
+        <v>-9.6709999999999994</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>10</v>
+        <v>7.8650000000000002</v>
       </c>
       <c r="AA15">
-        <v>118.5</v>
+        <v>22.18</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41851</v>
+        <v>38199</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>116</v>
+        <v>32.847999999999999</v>
       </c>
       <c r="D16">
-        <v>1323.8</v>
+        <v>413.267</v>
       </c>
       <c r="E16">
-        <v>392.5</v>
+        <v>150.124</v>
       </c>
       <c r="F16">
-        <v>479.1</v>
+        <v>144.84100000000001</v>
       </c>
       <c r="G16">
-        <v>1728.2</v>
+        <v>573.70000000000005</v>
       </c>
       <c r="H16">
-        <v>9250.2000000000007</v>
+        <v>2763.64</v>
       </c>
       <c r="I16">
-        <v>279.39999999999998</v>
+        <v>101.919</v>
       </c>
       <c r="J16">
-        <v>1881.1</v>
+        <v>451.149</v>
       </c>
       <c r="K16">
-        <v>470</v>
+        <v>97.628</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>-113.622</v>
       </c>
       <c r="M16">
-        <v>-100</v>
+        <v>-37.5</v>
       </c>
       <c r="N16">
-        <v>1019.3</v>
+        <v>408.03</v>
       </c>
       <c r="O16">
-        <v>4165.8</v>
+        <v>1140.029</v>
       </c>
       <c r="P16">
-        <v>2351.1</v>
+        <v>548.77700000000004</v>
       </c>
       <c r="Q16">
-        <v>-4.0999999999999996</v>
+        <v>-59.392000000000003</v>
       </c>
       <c r="R16">
-        <v>41851</v>
+        <v>38199</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>5084.3999999999996</v>
+        <v>1623.6110000000001</v>
       </c>
       <c r="U16">
-        <v>149.4</v>
+        <v>45.53</v>
       </c>
       <c r="V16">
-        <v>-8.1</v>
+        <v>-40.158999999999999</v>
       </c>
       <c r="W16">
-        <v>-58.9</v>
+        <v>-12.465999999999999</v>
       </c>
       <c r="X16">
-        <v>59.9</v>
+        <v>35.659999999999997</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>17.469000000000001</v>
       </c>
       <c r="AA16">
-        <v>116</v>
+        <v>32.847999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41943</v>
+        <v>38291</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>158.30000000000001</v>
+        <v>38.005000000000003</v>
       </c>
       <c r="D17">
-        <v>1481.8</v>
+        <v>588.92200000000003</v>
       </c>
       <c r="E17">
-        <v>453.2</v>
+        <v>197.80199999999999</v>
       </c>
       <c r="F17">
-        <v>536.79999999999995</v>
+        <v>189.49</v>
       </c>
       <c r="G17">
-        <v>1725.8</v>
+        <v>620.85400000000004</v>
       </c>
       <c r="H17">
-        <v>9334.7999999999993</v>
+        <v>2856.62</v>
       </c>
       <c r="I17">
-        <v>251.3</v>
+        <v>117.727</v>
       </c>
       <c r="J17">
-        <v>1890.8</v>
+        <v>433.04</v>
       </c>
       <c r="K17">
-        <v>545.9</v>
+        <v>80.994</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1004.1</v>
+        <v>458.84100000000001</v>
       </c>
       <c r="O17">
-        <v>4169.8</v>
+        <v>1177.5889999999999</v>
       </c>
       <c r="P17">
-        <v>2436.6999999999998</v>
+        <v>531.03399999999999</v>
       </c>
       <c r="Q17">
-        <v>-44.1</v>
+        <v>-12.65</v>
       </c>
       <c r="R17">
-        <v>41943</v>
+        <v>38291</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>5165</v>
+        <v>1679.0309999999999</v>
       </c>
       <c r="U17">
-        <v>105.3</v>
+        <v>32.509</v>
       </c>
       <c r="V17">
-        <v>92</v>
+        <v>50.265000000000001</v>
       </c>
       <c r="W17">
-        <v>-65</v>
+        <v>-14.51</v>
       </c>
       <c r="X17">
-        <v>11.8</v>
+        <v>-32.335999999999999</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-24.872</v>
       </c>
       <c r="AA17">
-        <v>158.30000000000001</v>
+        <v>38.005000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42035</v>
+        <v>38383</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>160.9</v>
+        <v>36.107999999999997</v>
       </c>
       <c r="D18">
-        <v>1440</v>
+        <v>550.23400000000004</v>
       </c>
       <c r="E18">
-        <v>373.9</v>
+        <v>129.73699999999999</v>
       </c>
       <c r="F18">
-        <v>523.29999999999995</v>
+        <v>174.71299999999999</v>
       </c>
       <c r="G18">
-        <v>1515.6</v>
+        <v>587.577</v>
       </c>
       <c r="H18">
-        <v>9095.6</v>
+        <v>2631.08</v>
       </c>
       <c r="I18">
-        <v>232.3</v>
+        <v>100.872</v>
       </c>
       <c r="J18">
-        <v>1891.8</v>
+        <v>432.3</v>
       </c>
       <c r="K18">
-        <v>264</v>
+        <v>56.393000000000001</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,81 +2220,81 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>710.1</v>
+        <v>381.483</v>
       </c>
       <c r="O18">
-        <v>3871.4</v>
+        <v>952.50599999999997</v>
       </c>
       <c r="P18">
-        <v>2179.8000000000002</v>
+        <v>505.69299999999998</v>
       </c>
       <c r="Q18">
-        <v>6.4</v>
+        <v>22.943000000000001</v>
       </c>
       <c r="R18">
-        <v>42035</v>
+        <v>38383</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>5224.2</v>
+        <v>1678.5740000000001</v>
       </c>
       <c r="U18">
-        <v>111.7</v>
+        <v>55.451999999999998</v>
       </c>
       <c r="V18">
-        <v>427.7</v>
+        <v>110.294</v>
       </c>
       <c r="W18">
-        <v>-65.099999999999994</v>
+        <v>-14.542999999999999</v>
       </c>
       <c r="X18">
-        <v>-350.1</v>
+        <v>-54.183999999999997</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-15.787000000000001</v>
       </c>
       <c r="AA18">
-        <v>160.9</v>
+        <v>36.107999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42124</v>
+        <v>38472</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>-90.3</v>
+        <v>22.111999999999998</v>
       </c>
       <c r="D19">
-        <v>1447.1</v>
+        <v>491.45400000000001</v>
       </c>
       <c r="E19">
-        <v>430.1</v>
+        <v>145.73400000000001</v>
       </c>
       <c r="F19">
-        <v>482.7</v>
+        <v>150.83799999999999</v>
       </c>
       <c r="G19">
-        <v>1983.9</v>
+        <v>555.851</v>
       </c>
       <c r="H19">
-        <v>16806.3</v>
+        <v>2635.8939999999998</v>
       </c>
       <c r="I19">
-        <v>402.8</v>
+        <v>105.29</v>
       </c>
       <c r="J19">
-        <v>5944.9</v>
+        <v>431.56</v>
       </c>
       <c r="K19">
-        <v>226</v>
+        <v>33.378</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,164 +2303,164 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1022.6</v>
+        <v>308.29199999999997</v>
       </c>
       <c r="O19">
-        <v>9719.4</v>
+        <v>945.09400000000005</v>
       </c>
       <c r="P19">
-        <v>6170.9</v>
+        <v>481.93799999999999</v>
       </c>
       <c r="Q19">
-        <v>13.9</v>
+        <v>2.633</v>
       </c>
       <c r="R19">
-        <v>42124</v>
+        <v>38472</v>
       </c>
       <c r="S19">
-        <v>7370</v>
+        <v>3700</v>
       </c>
       <c r="T19">
-        <v>7086.9</v>
+        <v>1690.8</v>
       </c>
       <c r="U19">
-        <v>125.6</v>
+        <v>58.085000000000001</v>
       </c>
       <c r="V19">
-        <v>221.6</v>
+        <v>29.364000000000001</v>
       </c>
       <c r="W19">
-        <v>-65</v>
+        <v>-14.538</v>
       </c>
       <c r="X19">
-        <v>1141.5999999999999</v>
+        <v>-21.42</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1.4810000000000001</v>
       </c>
       <c r="AA19">
-        <v>-90.3</v>
+        <v>22.111999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42216</v>
+        <v>38564</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>136.4</v>
+        <v>29.896999999999998</v>
       </c>
       <c r="D20">
-        <v>1952</v>
+        <v>510.33100000000002</v>
       </c>
       <c r="E20">
-        <v>507.9</v>
+        <v>161.262</v>
       </c>
       <c r="F20">
-        <v>731.8</v>
+        <v>164.845</v>
       </c>
       <c r="G20">
-        <v>2025.5</v>
+        <v>618.81500000000005</v>
       </c>
       <c r="H20">
-        <v>16758.400000000001</v>
+        <v>2686.5590000000002</v>
       </c>
       <c r="I20">
-        <v>347.1</v>
+        <v>123.98699999999999</v>
       </c>
       <c r="J20">
-        <v>5694.7</v>
+        <v>430.82100000000003</v>
       </c>
       <c r="K20">
-        <v>302.60000000000002</v>
+        <v>34.314</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1059.0999999999999</v>
+        <v>356</v>
       </c>
       <c r="O20">
-        <v>9628.4</v>
+        <v>992.39599999999996</v>
       </c>
       <c r="P20">
-        <v>5997.3</v>
+        <v>465.13499999999999</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>-10.598000000000001</v>
       </c>
       <c r="R20">
-        <v>42216</v>
+        <v>38564</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>7130</v>
+        <v>1694.163</v>
       </c>
       <c r="U20">
-        <v>133.6</v>
+        <v>47.487000000000002</v>
       </c>
       <c r="V20">
-        <v>307</v>
+        <v>20.187999999999999</v>
       </c>
       <c r="W20">
-        <v>-76.400000000000006</v>
+        <v>-15.707000000000001</v>
       </c>
       <c r="X20">
-        <v>-256.2</v>
+        <v>-31.777000000000001</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>6.8040000000000003</v>
       </c>
       <c r="AA20">
-        <v>136.4</v>
+        <v>29.896999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42308</v>
+        <v>38656</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>176</v>
+        <v>46.444000000000003</v>
       </c>
       <c r="D21">
-        <v>2077.6999999999998</v>
+        <v>606.26400000000001</v>
       </c>
       <c r="E21">
-        <v>605.4</v>
+        <v>187.185</v>
       </c>
       <c r="F21">
-        <v>790.3</v>
+        <v>203.53800000000001</v>
       </c>
       <c r="G21">
-        <v>2006</v>
+        <v>647.03399999999999</v>
       </c>
       <c r="H21">
-        <v>16694.8</v>
+        <v>2720.3969999999999</v>
       </c>
       <c r="I21">
-        <v>341.4</v>
+        <v>141.392</v>
       </c>
       <c r="J21">
-        <v>5494.5</v>
+        <v>430.08100000000002</v>
       </c>
       <c r="K21">
-        <v>370</v>
+        <v>39.79</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1132.7</v>
+        <v>357.22500000000002</v>
       </c>
       <c r="O21">
-        <v>9461.6</v>
+        <v>992.14499999999998</v>
       </c>
       <c r="P21">
-        <v>5864.5</v>
+        <v>469.87099999999998</v>
       </c>
       <c r="Q21">
-        <v>5.4</v>
+        <v>-5.1260000000000003</v>
       </c>
       <c r="R21">
-        <v>42308</v>
+        <v>38656</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>7233.2</v>
+        <v>1728.252</v>
       </c>
       <c r="U21">
-        <v>139</v>
+        <v>42.360999999999997</v>
       </c>
       <c r="V21">
-        <v>275.5</v>
+        <v>39.06</v>
       </c>
       <c r="W21">
-        <v>-80.099999999999994</v>
+        <v>-15.708</v>
       </c>
       <c r="X21">
-        <v>-213.2</v>
+        <v>-32.107999999999997</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>4.3849999999999998</v>
       </c>
       <c r="AA21">
-        <v>176</v>
+        <v>46.444000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42400</v>
+        <v>38748</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>185.3</v>
+        <v>31.312000000000001</v>
       </c>
       <c r="D22">
-        <v>1973.9</v>
+        <v>536.45299999999997</v>
       </c>
       <c r="E22">
-        <v>503.8</v>
+        <v>122.514</v>
       </c>
       <c r="F22">
-        <v>766.9</v>
+        <v>164.47200000000001</v>
       </c>
       <c r="G22">
-        <v>1798.4</v>
+        <v>600.83699999999999</v>
       </c>
       <c r="H22">
-        <v>16281.5</v>
+        <v>2666.3040000000001</v>
       </c>
       <c r="I22">
-        <v>371</v>
+        <v>80.608000000000004</v>
       </c>
       <c r="J22">
-        <v>5146.3</v>
+        <v>429.34100000000001</v>
       </c>
       <c r="K22">
-        <v>138</v>
+        <v>37.749000000000002</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,81 +2552,81 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1006</v>
+        <v>265.09699999999998</v>
       </c>
       <c r="O22">
-        <v>8956</v>
+        <v>924.68899999999996</v>
       </c>
       <c r="P22">
-        <v>5284.3</v>
+        <v>467.09</v>
       </c>
       <c r="Q22">
-        <v>1.5</v>
+        <v>46.884999999999998</v>
       </c>
       <c r="R22">
-        <v>42400</v>
+        <v>38748</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>7325.5</v>
+        <v>1741.615</v>
       </c>
       <c r="U22">
-        <v>140.5</v>
+        <v>89.245999999999995</v>
       </c>
       <c r="V22">
-        <v>542.29999999999995</v>
+        <v>65.331999999999994</v>
       </c>
       <c r="W22">
-        <v>-80</v>
+        <v>-15.629</v>
       </c>
       <c r="X22">
-        <v>-662.3</v>
+        <v>-28.652999999999999</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-16</v>
+        <v>12.718999999999999</v>
       </c>
       <c r="AA22">
-        <v>185.3</v>
+        <v>31.312000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42490</v>
+        <v>38837</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>191</v>
+        <v>35.701000000000001</v>
       </c>
       <c r="D23">
-        <v>1807.6</v>
+        <v>501.678</v>
       </c>
       <c r="E23">
-        <v>450.1</v>
+        <v>148.01400000000001</v>
       </c>
       <c r="F23">
-        <v>691</v>
+        <v>162.26</v>
       </c>
       <c r="G23">
-        <v>1573.4</v>
+        <v>642.83799999999997</v>
       </c>
       <c r="H23">
-        <v>15984.1</v>
+        <v>2649.7440000000001</v>
       </c>
       <c r="I23">
-        <v>459.4</v>
+        <v>88.962999999999994</v>
       </c>
       <c r="J23">
-        <v>5146</v>
+        <v>428.60199999999998</v>
       </c>
       <c r="K23">
-        <v>284</v>
+        <v>28.62</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,164 +2635,164 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1213</v>
+        <v>235.44</v>
       </c>
       <c r="O23">
-        <v>8975.6</v>
+        <v>921.68499999999995</v>
       </c>
       <c r="P23">
-        <v>5430</v>
+        <v>457.22199999999998</v>
       </c>
       <c r="Q23">
-        <v>-30.7</v>
+        <v>-17.29</v>
       </c>
       <c r="R23">
-        <v>42490</v>
+        <v>38837</v>
       </c>
       <c r="S23">
-        <v>6910</v>
+        <v>3500</v>
       </c>
       <c r="T23">
-        <v>7008.5</v>
+        <v>1728.059</v>
       </c>
       <c r="U23">
-        <v>109.8</v>
+        <v>71.956000000000003</v>
       </c>
       <c r="V23">
-        <v>336.2</v>
+        <v>74.108999999999995</v>
       </c>
       <c r="W23">
-        <v>-80.099999999999994</v>
+        <v>-15.612</v>
       </c>
       <c r="X23">
-        <v>-367.2</v>
+        <v>-76.590999999999994</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>2.1930000000000001</v>
       </c>
       <c r="AA23">
-        <v>191</v>
+        <v>35.701000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42582</v>
+        <v>38929</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>170</v>
+        <v>28.724</v>
       </c>
       <c r="D24">
-        <v>1815.8</v>
+        <v>526.50900000000001</v>
       </c>
       <c r="E24">
-        <v>523</v>
+        <v>144.714</v>
       </c>
       <c r="F24">
-        <v>726.7</v>
+        <v>165.167</v>
       </c>
       <c r="G24">
-        <v>1740.7</v>
+        <v>676.38</v>
       </c>
       <c r="H24">
-        <v>16061.8</v>
+        <v>2718.038</v>
       </c>
       <c r="I24">
-        <v>452</v>
+        <v>95.028000000000006</v>
       </c>
       <c r="J24">
-        <v>5045.7</v>
+        <v>427.86200000000002</v>
       </c>
       <c r="K24">
-        <v>306</v>
+        <v>48.603999999999999</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1288.4000000000001</v>
+        <v>289.745</v>
       </c>
       <c r="O24">
-        <v>8965.9</v>
+        <v>972.50900000000001</v>
       </c>
       <c r="P24">
-        <v>5351.7</v>
+        <v>476.46600000000001</v>
       </c>
       <c r="Q24">
-        <v>-0.2</v>
+        <v>24.184000000000001</v>
       </c>
       <c r="R24">
-        <v>42582</v>
+        <v>38929</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>7095.9</v>
+        <v>1745.529</v>
       </c>
       <c r="U24">
-        <v>109.6</v>
+        <v>96.14</v>
       </c>
       <c r="V24">
-        <v>238.9</v>
+        <v>60.808</v>
       </c>
       <c r="W24">
-        <v>-77.8</v>
+        <v>-15.808999999999999</v>
       </c>
       <c r="X24">
-        <v>-173.2</v>
+        <v>5.7290000000000001</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>-7.8070000000000004</v>
       </c>
       <c r="AA24">
-        <v>170</v>
+        <v>28.724</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42674</v>
+        <v>39021</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>177.3</v>
+        <v>45.569000000000003</v>
       </c>
       <c r="D25">
-        <v>1913.9</v>
+        <v>604.95500000000004</v>
       </c>
       <c r="E25">
-        <v>517.79999999999995</v>
+        <v>178.434</v>
       </c>
       <c r="F25">
-        <v>743.2</v>
+        <v>193.31</v>
       </c>
       <c r="G25">
-        <v>1805.2</v>
+        <v>607.00300000000004</v>
       </c>
       <c r="H25">
-        <v>16058.2</v>
+        <v>2689.607</v>
       </c>
       <c r="I25">
-        <v>435.8</v>
+        <v>94.084999999999994</v>
       </c>
       <c r="J25">
-        <v>4945.3999999999996</v>
+        <v>394.12200000000001</v>
       </c>
       <c r="K25">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1306.3</v>
+        <v>284.41300000000001</v>
       </c>
       <c r="O25">
-        <v>8878.1</v>
+        <v>934.89400000000001</v>
       </c>
       <c r="P25">
-        <v>5351.4</v>
+        <v>427.12200000000001</v>
       </c>
       <c r="Q25">
-        <v>12.2</v>
+        <v>-18.439</v>
       </c>
       <c r="R25">
-        <v>42674</v>
+        <v>39021</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>7180.1</v>
+        <v>1754.713</v>
       </c>
       <c r="U25">
-        <v>121.8</v>
+        <v>77.700999999999993</v>
       </c>
       <c r="V25">
-        <v>136.4</v>
+        <v>46.613</v>
       </c>
       <c r="W25">
-        <v>-87.1</v>
+        <v>-16.126999999999999</v>
       </c>
       <c r="X25">
-        <v>-87.9</v>
+        <v>-89.765000000000001</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>2.5920000000000001</v>
       </c>
       <c r="AA25">
-        <v>177.3</v>
+        <v>45.569000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42766</v>
+        <v>39113</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>134.6</v>
+        <v>40.427</v>
       </c>
       <c r="D26">
-        <v>1878.8</v>
+        <v>523.08100000000002</v>
       </c>
       <c r="E26">
-        <v>421.4</v>
+        <v>117.619</v>
       </c>
       <c r="F26">
-        <v>723.4</v>
+        <v>173.65600000000001</v>
       </c>
       <c r="G26">
-        <v>1690.9</v>
+        <v>581.92600000000004</v>
       </c>
       <c r="H26">
-        <v>15811.7</v>
+        <v>2655.8780000000002</v>
       </c>
       <c r="I26">
-        <v>428.5</v>
+        <v>80.619</v>
       </c>
       <c r="J26">
-        <v>4945</v>
+        <v>393.38299999999998</v>
       </c>
       <c r="K26">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,81 +2884,81 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>997.2</v>
+        <v>247.495</v>
       </c>
       <c r="O26">
-        <v>8569.7999999999993</v>
+        <v>900.48699999999997</v>
       </c>
       <c r="P26">
-        <v>5087</v>
+        <v>426.38299999999998</v>
       </c>
       <c r="Q26">
-        <v>17.8</v>
+        <v>74.466999999999999</v>
       </c>
       <c r="R26">
-        <v>42766</v>
+        <v>39113</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>7241.9</v>
+        <v>1755.3910000000001</v>
       </c>
       <c r="U26">
-        <v>139.6</v>
+        <v>152.16800000000001</v>
       </c>
       <c r="V26">
-        <v>419.5</v>
+        <v>104.621</v>
       </c>
       <c r="W26">
-        <v>-87.2</v>
+        <v>-15.884</v>
       </c>
       <c r="X26">
-        <v>-351.3</v>
+        <v>-27.382000000000001</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>8.41</v>
       </c>
       <c r="AA26">
-        <v>134.6</v>
+        <v>40.427</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42855</v>
+        <v>39202</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>110.4</v>
+        <v>42.499000000000002</v>
       </c>
       <c r="D27">
-        <v>1783.8</v>
+        <v>493.47199999999998</v>
       </c>
       <c r="E27">
-        <v>438.7</v>
+        <v>124.048</v>
       </c>
       <c r="F27">
-        <v>647.70000000000005</v>
+        <v>179.90299999999999</v>
       </c>
       <c r="G27">
-        <v>1641.8</v>
+        <v>639.36599999999999</v>
       </c>
       <c r="H27">
-        <v>15639.7</v>
+        <v>2693.8229999999999</v>
       </c>
       <c r="I27">
-        <v>477.2</v>
+        <v>93.5</v>
       </c>
       <c r="J27">
-        <v>4445.5</v>
+        <v>392.64299999999997</v>
       </c>
       <c r="K27">
-        <v>454</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,164 +2967,164 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1832.6</v>
+        <v>236.46799999999999</v>
       </c>
       <c r="O27">
-        <v>8789.5</v>
+        <v>898.16600000000005</v>
       </c>
       <c r="P27">
-        <v>5398.5</v>
+        <v>425.64299999999997</v>
       </c>
       <c r="Q27">
-        <v>27.2</v>
+        <v>47.951000000000001</v>
       </c>
       <c r="R27">
-        <v>42855</v>
+        <v>39202</v>
       </c>
       <c r="S27">
-        <v>7140</v>
+        <v>3025</v>
       </c>
       <c r="T27">
-        <v>6850.2</v>
+        <v>1795.6569999999999</v>
       </c>
       <c r="U27">
-        <v>166.8</v>
+        <v>200.119</v>
       </c>
       <c r="V27">
-        <v>264.2</v>
+        <v>61.381999999999998</v>
       </c>
       <c r="W27">
-        <v>-87.2</v>
+        <v>-15.811999999999999</v>
       </c>
       <c r="X27">
-        <v>-193.7</v>
+        <v>-6.2069999999999999</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>40.6</v>
+        <v>3.077</v>
       </c>
       <c r="AA27">
-        <v>110.4</v>
+        <v>42.499000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42947</v>
+        <v>39294</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>126.8</v>
+        <v>40.761000000000003</v>
       </c>
       <c r="D28">
-        <v>1748.9</v>
+        <v>561.51300000000003</v>
       </c>
       <c r="E28">
-        <v>433.7</v>
+        <v>148.06100000000001</v>
       </c>
       <c r="F28">
-        <v>662.8</v>
+        <v>185.98400000000001</v>
       </c>
       <c r="G28">
-        <v>1692.1</v>
+        <v>915.19399999999996</v>
       </c>
       <c r="H28">
-        <v>15641.6</v>
+        <v>3202.232</v>
       </c>
       <c r="I28">
-        <v>477.6</v>
+        <v>108.73099999999999</v>
       </c>
       <c r="J28">
-        <v>4444.8</v>
+        <v>791.90300000000002</v>
       </c>
       <c r="K28">
-        <v>283.89999999999998</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>-170.1</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>-115</v>
       </c>
       <c r="N28">
-        <v>1750.9</v>
+        <v>283.88499999999999</v>
       </c>
       <c r="O28">
-        <v>8709.7000000000007</v>
+        <v>1356.5429999999999</v>
       </c>
       <c r="P28">
-        <v>5228</v>
+        <v>824.90300000000002</v>
       </c>
       <c r="Q28">
-        <v>16.399999999999999</v>
+        <v>6.5430000000000001</v>
       </c>
       <c r="R28">
-        <v>42947</v>
+        <v>39294</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>6931.9</v>
+        <v>1845.6890000000001</v>
       </c>
       <c r="U28">
-        <v>183.2</v>
+        <v>206.66200000000001</v>
       </c>
       <c r="V28">
-        <v>304.3</v>
+        <v>9.6270000000000007</v>
       </c>
       <c r="W28">
-        <v>-84.9</v>
+        <v>-17.013999999999999</v>
       </c>
       <c r="X28">
-        <v>-260.10000000000002</v>
+        <v>283.65499999999997</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>-142.375</v>
       </c>
       <c r="AA28">
-        <v>126.8</v>
+        <v>40.761000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43039</v>
+        <v>39386</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>194.6</v>
+        <v>50.165999999999997</v>
       </c>
       <c r="D29">
-        <v>1923.6</v>
+        <v>707.89</v>
       </c>
       <c r="E29">
-        <v>481.6</v>
+        <v>223.303</v>
       </c>
       <c r="F29">
-        <v>755.9</v>
+        <v>218.488</v>
       </c>
       <c r="G29">
-        <v>1785.8</v>
+        <v>943.697</v>
       </c>
       <c r="H29">
-        <v>15702</v>
+        <v>3283.4070000000002</v>
       </c>
       <c r="I29">
-        <v>507.4</v>
+        <v>133.179</v>
       </c>
       <c r="J29">
-        <v>4294.1000000000004</v>
+        <v>791.16399999999999</v>
       </c>
       <c r="K29">
-        <v>463.9</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1854.5</v>
+        <v>293.17099999999999</v>
       </c>
       <c r="O29">
-        <v>8665.7000000000007</v>
+        <v>1365.4659999999999</v>
       </c>
       <c r="P29">
-        <v>5257.6</v>
+        <v>791.16399999999999</v>
       </c>
       <c r="Q29">
-        <v>-2.9</v>
+        <v>79.347999999999999</v>
       </c>
       <c r="R29">
-        <v>43039</v>
+        <v>39386</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>7036.3</v>
+        <v>1917.941</v>
       </c>
       <c r="U29">
-        <v>180.3</v>
+        <v>287.12299999999999</v>
       </c>
       <c r="V29">
-        <v>130.30000000000001</v>
+        <v>29.684999999999999</v>
       </c>
       <c r="W29">
-        <v>-88.5</v>
+        <v>-17.228999999999999</v>
       </c>
       <c r="X29">
-        <v>-61.1</v>
+        <v>-50.112000000000002</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>146.28100000000001</v>
       </c>
       <c r="AA29">
-        <v>194.6</v>
+        <v>50.165999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43131</v>
+        <v>39478</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>831.3</v>
+        <v>42.401000000000003</v>
       </c>
       <c r="D30">
-        <v>1903.3</v>
+        <v>665.37300000000005</v>
       </c>
       <c r="E30">
-        <v>422.7</v>
+        <v>141.215</v>
       </c>
       <c r="F30">
-        <v>730.8</v>
+        <v>195.715</v>
       </c>
       <c r="G30">
-        <v>1609.9</v>
+        <v>854.31700000000001</v>
       </c>
       <c r="H30">
-        <v>15329.2</v>
+        <v>3162.2530000000002</v>
       </c>
       <c r="I30">
-        <v>471.2</v>
+        <v>114.634</v>
       </c>
       <c r="J30">
-        <v>4688.5</v>
+        <v>790.42399999999998</v>
       </c>
       <c r="K30">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,81 +3216,81 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1089.9000000000001</v>
+        <v>243.923</v>
       </c>
       <c r="O30">
-        <v>7525</v>
+        <v>1311.6489999999999</v>
       </c>
       <c r="P30">
-        <v>4942.5</v>
+        <v>790.42399999999998</v>
       </c>
       <c r="Q30">
-        <v>5.9</v>
+        <v>44.473999999999997</v>
       </c>
       <c r="R30">
-        <v>43131</v>
+        <v>39478</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>7804.2</v>
+        <v>1850.604</v>
       </c>
       <c r="U30">
-        <v>186.2</v>
+        <v>327.66399999999999</v>
       </c>
       <c r="V30">
-        <v>469</v>
+        <v>141.93</v>
       </c>
       <c r="W30">
-        <v>-88</v>
+        <v>-17.234999999999999</v>
       </c>
       <c r="X30">
-        <v>-404</v>
+        <v>-100.63200000000001</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>23.55</v>
       </c>
       <c r="AA30">
-        <v>831.3</v>
+        <v>42.401000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43220</v>
+        <v>39568</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>185.9</v>
+        <v>37.051000000000002</v>
       </c>
       <c r="D31">
-        <v>1781.3</v>
+        <v>589.99800000000005</v>
       </c>
       <c r="E31">
-        <v>385.6</v>
+        <v>162.42599999999999</v>
       </c>
       <c r="F31">
-        <v>690.5</v>
+        <v>183.48699999999999</v>
       </c>
       <c r="G31">
-        <v>1555</v>
+        <v>776.20699999999999</v>
       </c>
       <c r="H31">
-        <v>15301.2</v>
+        <v>3129.8809999999999</v>
       </c>
       <c r="I31">
-        <v>512.1</v>
+        <v>119.84399999999999</v>
       </c>
       <c r="J31">
-        <v>4688</v>
+        <v>789.68399999999997</v>
       </c>
       <c r="K31">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,81 +3299,81 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1033.8</v>
+        <v>239.39699999999999</v>
       </c>
       <c r="O31">
-        <v>7410.1</v>
+        <v>1330.028</v>
       </c>
       <c r="P31">
-        <v>4832</v>
+        <v>789.68399999999997</v>
       </c>
       <c r="Q31">
-        <v>6.4</v>
+        <v>-158.36500000000001</v>
       </c>
       <c r="R31">
-        <v>43220</v>
+        <v>39568</v>
       </c>
       <c r="S31">
-        <v>7000</v>
+        <v>3250</v>
       </c>
       <c r="T31">
-        <v>7891.1</v>
+        <v>1799.8530000000001</v>
       </c>
       <c r="U31">
-        <v>192.6</v>
+        <v>171.541</v>
       </c>
       <c r="V31">
-        <v>314.39999999999998</v>
+        <v>-1.7210000000000001</v>
       </c>
       <c r="W31">
-        <v>-88.9</v>
+        <v>-16.596</v>
       </c>
       <c r="X31">
-        <v>-196.8</v>
+        <v>-83.072000000000003</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="AA31">
-        <v>185.9</v>
+        <v>37.051000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43312</v>
+        <v>39660</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>133</v>
+        <v>42.290999999999997</v>
       </c>
       <c r="D32">
-        <v>1902.5</v>
+        <v>663.65700000000004</v>
       </c>
       <c r="E32">
-        <v>504.2</v>
+        <v>182.69300000000001</v>
       </c>
       <c r="F32">
-        <v>678.2</v>
+        <v>207.779</v>
       </c>
       <c r="G32">
-        <v>1805.8</v>
+        <v>835.08</v>
       </c>
       <c r="H32">
-        <v>17513</v>
+        <v>3232.3209999999999</v>
       </c>
       <c r="I32">
-        <v>532.1</v>
+        <v>154.94200000000001</v>
       </c>
       <c r="J32">
-        <v>6184.9</v>
+        <v>713.94500000000005</v>
       </c>
       <c r="K32">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1544</v>
+        <v>403.75299999999999</v>
       </c>
       <c r="O32">
-        <v>9582.2000000000007</v>
+        <v>1415.0360000000001</v>
       </c>
       <c r="P32">
-        <v>6714.9</v>
+        <v>788.94500000000005</v>
       </c>
       <c r="Q32">
-        <v>-0.6</v>
+        <v>-36.802999999999997</v>
       </c>
       <c r="R32">
-        <v>43312</v>
+        <v>39660</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>7930.8</v>
+        <v>1817.2850000000001</v>
       </c>
       <c r="U32">
-        <v>192</v>
+        <v>142.69900000000001</v>
       </c>
       <c r="V32">
-        <v>243</v>
+        <v>60.176000000000002</v>
       </c>
       <c r="W32">
-        <v>-88.4</v>
+        <v>-17.451000000000001</v>
       </c>
       <c r="X32">
-        <v>1790.5</v>
+        <v>-20.484999999999999</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="AA32">
-        <v>133</v>
+        <v>42.290999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43404</v>
+        <v>39752</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>188.5</v>
+        <v>51.453000000000003</v>
       </c>
       <c r="D33">
-        <v>2021.5</v>
+        <v>843.14200000000005</v>
       </c>
       <c r="E33">
-        <v>561.9</v>
+        <v>267.49799999999999</v>
       </c>
       <c r="F33">
-        <v>771.3</v>
+        <v>243.41900000000001</v>
       </c>
       <c r="G33">
-        <v>1787.2</v>
+        <v>1005.36</v>
       </c>
       <c r="H33">
-        <v>17174.2</v>
+        <v>3376.3409999999999</v>
       </c>
       <c r="I33">
-        <v>552.4</v>
+        <v>146.79900000000001</v>
       </c>
       <c r="J33">
-        <v>5885.1</v>
+        <v>1113.2049999999999</v>
       </c>
       <c r="K33">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1434.5</v>
+        <v>467.33100000000002</v>
       </c>
       <c r="O33">
-        <v>9144.2000000000007</v>
+        <v>1864.056</v>
       </c>
       <c r="P33">
-        <v>6275.1</v>
+        <v>1188.2049999999999</v>
       </c>
       <c r="Q33">
-        <v>-20.8</v>
+        <v>31.574000000000002</v>
       </c>
       <c r="R33">
-        <v>43404</v>
+        <v>39752</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>8030</v>
+        <v>1512.2850000000001</v>
       </c>
       <c r="U33">
-        <v>171.2</v>
+        <v>166.31200000000001</v>
       </c>
       <c r="V33">
-        <v>202.9</v>
+        <v>-51.454000000000001</v>
       </c>
       <c r="W33">
-        <v>-96.5</v>
+        <v>-17.501000000000001</v>
       </c>
       <c r="X33">
-        <v>-534.29999999999995</v>
+        <v>110.154</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="AA33">
-        <v>188.5</v>
+        <v>51.453000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43496</v>
+        <v>39844</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>121.4</v>
+        <v>77.941000000000003</v>
       </c>
       <c r="D34">
-        <v>2011.9</v>
+        <v>1182.5940000000001</v>
       </c>
       <c r="E34">
-        <v>502.6</v>
+        <v>259.10700000000003</v>
       </c>
       <c r="F34">
-        <v>773.8</v>
+        <v>401.041</v>
       </c>
       <c r="G34">
-        <v>1726.2</v>
+        <v>1344.297</v>
       </c>
       <c r="H34">
-        <v>16927.599999999999</v>
+        <v>8246.5429999999997</v>
       </c>
       <c r="I34">
-        <v>519.6</v>
+        <v>176.399</v>
       </c>
       <c r="J34">
-        <v>5323.4</v>
+        <v>910</v>
       </c>
       <c r="K34">
-        <v>504</v>
+        <v>350</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,81 +3548,81 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1816.4</v>
+        <v>1123.5250000000001</v>
       </c>
       <c r="O34">
-        <v>8906</v>
+        <v>3331.6030000000001</v>
       </c>
       <c r="P34">
-        <v>6126.7</v>
+        <v>1537.4659999999999</v>
       </c>
       <c r="Q34">
-        <v>35.299999999999997</v>
+        <v>193.595</v>
       </c>
       <c r="R34">
-        <v>43496</v>
+        <v>39844</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>8021.6</v>
+        <v>4914.9399999999996</v>
       </c>
       <c r="U34">
-        <v>206.5</v>
+        <v>359.90699999999998</v>
       </c>
       <c r="V34">
-        <v>421.1</v>
+        <v>280.28800000000001</v>
       </c>
       <c r="W34">
-        <v>-96.5</v>
+        <v>-37.863</v>
       </c>
       <c r="X34">
-        <v>-282.60000000000002</v>
+        <v>-39.347999999999999</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>0.442</v>
       </c>
       <c r="AA34">
-        <v>121.4</v>
+        <v>77.941000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43585</v>
+        <v>39933</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>71.5</v>
+        <v>94.268000000000001</v>
       </c>
       <c r="D35">
-        <v>1902.1</v>
+        <v>1068.54</v>
       </c>
       <c r="E35">
-        <v>503.8</v>
+        <v>266.03699999999998</v>
       </c>
       <c r="F35">
-        <v>692.4</v>
+        <v>399.19</v>
       </c>
       <c r="G35">
-        <v>1625.2</v>
+        <v>1398.8910000000001</v>
       </c>
       <c r="H35">
-        <v>16711.3</v>
+        <v>8192.1610000000001</v>
       </c>
       <c r="I35">
-        <v>591</v>
+        <v>198.95400000000001</v>
       </c>
       <c r="J35">
-        <v>4686.3</v>
+        <v>910</v>
       </c>
       <c r="K35">
-        <v>426</v>
+        <v>350</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,164 +3631,164 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>2341.5</v>
+        <v>1061.2360000000001</v>
       </c>
       <c r="O35">
-        <v>8740.7999999999993</v>
+        <v>3252.23</v>
       </c>
       <c r="P35">
-        <v>5959.9</v>
+        <v>1536.7260000000001</v>
       </c>
       <c r="Q35">
-        <v>-105.2</v>
+        <v>96.786000000000001</v>
       </c>
       <c r="R35">
-        <v>43585</v>
+        <v>39933</v>
       </c>
       <c r="S35">
-        <v>7400</v>
+        <v>4700</v>
       </c>
       <c r="T35">
-        <v>7970.5</v>
+        <v>4939.9309999999996</v>
       </c>
       <c r="U35">
-        <v>101.3</v>
+        <v>456.69299999999998</v>
       </c>
       <c r="V35">
-        <v>274.2</v>
+        <v>157.983</v>
       </c>
       <c r="W35">
-        <v>-96.5</v>
+        <v>-37.853000000000002</v>
       </c>
       <c r="X35">
-        <v>-274.60000000000002</v>
+        <v>-37.72</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>1.7050000000000001</v>
       </c>
       <c r="AA35">
-        <v>71.5</v>
+        <v>94.268000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43677</v>
+        <v>40025</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>154.6</v>
+        <v>98.063000000000002</v>
       </c>
       <c r="D36">
-        <v>1778.9</v>
+        <v>1051.5260000000001</v>
       </c>
       <c r="E36">
-        <v>473.7</v>
+        <v>307.50700000000001</v>
       </c>
       <c r="F36">
-        <v>699.6</v>
+        <v>406.029</v>
       </c>
       <c r="G36">
-        <v>1613.5</v>
+        <v>1442.4390000000001</v>
       </c>
       <c r="H36">
-        <v>16791.599999999999</v>
+        <v>8234.759</v>
       </c>
       <c r="I36">
-        <v>503.1</v>
+        <v>196.12899999999999</v>
       </c>
       <c r="J36">
-        <v>4685.3</v>
+        <v>910</v>
       </c>
       <c r="K36">
-        <v>295.89999999999998</v>
+        <v>350</v>
       </c>
       <c r="L36">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="N36">
-        <v>2290.8000000000002</v>
+        <v>1000.753</v>
       </c>
       <c r="O36">
-        <v>8783.9</v>
+        <v>3200.4290000000001</v>
       </c>
       <c r="P36">
-        <v>6044.6</v>
+        <v>1460.9860000000001</v>
       </c>
       <c r="Q36">
-        <v>-52.5</v>
+        <v>-166.92099999999999</v>
       </c>
       <c r="R36">
-        <v>43677</v>
+        <v>40025</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>8007.7</v>
+        <v>5034.33</v>
       </c>
       <c r="U36">
-        <v>48.8</v>
+        <v>289.77199999999999</v>
       </c>
       <c r="V36">
-        <v>221.5</v>
+        <v>-25.847999999999999</v>
       </c>
       <c r="W36">
-        <v>-96.5</v>
+        <v>-41.406999999999996</v>
       </c>
       <c r="X36">
-        <v>-222.6</v>
+        <v>-119.36499999999999</v>
       </c>
       <c r="Y36">
-        <v>116.6</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>2.4039999999999999</v>
       </c>
       <c r="AA36">
-        <v>154.6</v>
+        <v>98.063000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43769</v>
+        <v>40117</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>211.2</v>
+        <v>139.99</v>
       </c>
       <c r="D37">
-        <v>1957.8</v>
+        <v>1278.7449999999999</v>
       </c>
       <c r="E37">
-        <v>522.4</v>
+        <v>411.23899999999998</v>
       </c>
       <c r="F37">
-        <v>754</v>
+        <v>492.25</v>
       </c>
       <c r="G37">
-        <v>1659.2</v>
+        <v>1631.338</v>
       </c>
       <c r="H37">
-        <v>16791</v>
+        <v>8438.4140000000007</v>
       </c>
       <c r="I37">
-        <v>521.79999999999995</v>
+        <v>200.09399999999999</v>
       </c>
       <c r="J37">
-        <v>4584.5</v>
+        <v>900</v>
       </c>
       <c r="K37">
-        <v>327.9</v>
+        <v>350</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2310.1</v>
+        <v>1107.1020000000001</v>
       </c>
       <c r="O37">
-        <v>8695.7000000000007</v>
+        <v>3303.06</v>
       </c>
       <c r="P37">
-        <v>6024.8</v>
+        <v>1460.2470000000001</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>119.93600000000001</v>
       </c>
       <c r="R37">
-        <v>43769</v>
+        <v>40117</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>8095.3</v>
+        <v>5135.3540000000003</v>
       </c>
       <c r="U37">
-        <v>48.8</v>
+        <v>409.70800000000003</v>
       </c>
       <c r="V37">
-        <v>224</v>
+        <v>213.66</v>
       </c>
       <c r="W37">
-        <v>-100.1</v>
+        <v>-41.585999999999999</v>
       </c>
       <c r="X37">
-        <v>-172.6</v>
+        <v>-41.895000000000003</v>
       </c>
       <c r="Y37">
-        <v>119.9</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>11.115</v>
       </c>
       <c r="AA37">
-        <v>211.2</v>
+        <v>139.99</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43861</v>
+        <v>40209</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>187.4</v>
+        <v>135.47900000000001</v>
       </c>
       <c r="D38">
-        <v>1972.3</v>
+        <v>1205.9390000000001</v>
       </c>
       <c r="E38">
-        <v>477.3</v>
+        <v>281.678</v>
       </c>
       <c r="F38">
-        <v>760</v>
+        <v>458.30399999999997</v>
       </c>
       <c r="G38">
-        <v>1602.7</v>
+        <v>1122.826</v>
       </c>
       <c r="H38">
-        <v>16636.2</v>
+        <v>7899.4319999999998</v>
       </c>
       <c r="I38">
-        <v>575</v>
+        <v>150.441</v>
       </c>
       <c r="J38">
-        <v>4583.3</v>
+        <v>900</v>
       </c>
       <c r="K38">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,81 +3880,81 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2077.4</v>
+        <v>468.28300000000002</v>
       </c>
       <c r="O38">
-        <v>8465.7999999999993</v>
+        <v>2659.1880000000001</v>
       </c>
       <c r="P38">
-        <v>5743.1</v>
+        <v>910</v>
       </c>
       <c r="Q38">
-        <v>25.6</v>
+        <v>-284.14699999999999</v>
       </c>
       <c r="R38">
-        <v>43861</v>
+        <v>40209</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>8170.4</v>
+        <v>5240.2439999999997</v>
       </c>
       <c r="U38">
-        <v>74.400000000000006</v>
+        <v>125.56100000000001</v>
       </c>
       <c r="V38">
-        <v>521.6</v>
+        <v>323.762</v>
       </c>
       <c r="W38">
-        <v>-100.1</v>
+        <v>-41.593000000000004</v>
       </c>
       <c r="X38">
-        <v>-420.9</v>
+        <v>-585.72400000000005</v>
       </c>
       <c r="Y38">
-        <v>137.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>187.4</v>
+        <v>135.47900000000001</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43951</v>
+        <v>40298</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>226.3</v>
+        <v>120.60599999999999</v>
       </c>
       <c r="D39">
-        <v>2092</v>
+        <v>1069.079</v>
       </c>
       <c r="E39">
-        <v>551.4</v>
+        <v>238.86699999999999</v>
       </c>
       <c r="F39">
-        <v>788.4</v>
+        <v>433.97699999999998</v>
       </c>
       <c r="G39">
-        <v>1972.7</v>
+        <v>1223.6300000000001</v>
       </c>
       <c r="H39">
-        <v>16970.400000000001</v>
+        <v>7974.8530000000001</v>
       </c>
       <c r="I39">
-        <v>782</v>
+        <v>179.50899999999999</v>
       </c>
       <c r="J39">
-        <v>5373.3</v>
+        <v>900</v>
       </c>
       <c r="K39">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3843,164 +3963,164 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1587.1</v>
+        <v>478.89699999999999</v>
       </c>
       <c r="O39">
-        <v>8779.5</v>
+        <v>2648.5329999999999</v>
       </c>
       <c r="P39">
-        <v>5783.5</v>
+        <v>910</v>
       </c>
       <c r="Q39">
-        <v>316.7</v>
+        <v>158.00899999999999</v>
       </c>
       <c r="R39">
-        <v>43951</v>
+        <v>40298</v>
       </c>
       <c r="S39">
-        <v>7300</v>
+        <v>4850</v>
       </c>
       <c r="T39">
-        <v>8190.9</v>
+        <v>5326.32</v>
       </c>
       <c r="U39">
-        <v>391.1</v>
+        <v>283.57</v>
       </c>
       <c r="V39">
-        <v>287.7</v>
+        <v>201.904</v>
       </c>
       <c r="W39">
-        <v>-100.1</v>
+        <v>-41.637999999999998</v>
       </c>
       <c r="X39">
-        <v>127.4</v>
+        <v>-41.564</v>
       </c>
       <c r="Y39">
-        <v>123.5</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>226.3</v>
+        <v>120.60599999999999</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44043</v>
+        <v>40390</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>237</v>
+        <v>102.881</v>
       </c>
       <c r="D40">
-        <v>1971.8</v>
+        <v>1047.3119999999999</v>
       </c>
       <c r="E40">
-        <v>497.6</v>
+        <v>305.41800000000001</v>
       </c>
       <c r="F40">
-        <v>775.4</v>
+        <v>417.88799999999998</v>
       </c>
       <c r="G40">
-        <v>1984.8</v>
+        <v>1700.6279999999999</v>
       </c>
       <c r="H40">
-        <v>16902.3</v>
+        <v>8419.1039999999994</v>
       </c>
       <c r="I40">
-        <v>780.6</v>
+        <v>183.6</v>
       </c>
       <c r="J40">
-        <v>4672.8</v>
+        <v>1300</v>
       </c>
       <c r="K40">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
       <c r="M40">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>2073.1</v>
+        <v>454.23599999999999</v>
       </c>
       <c r="O40">
-        <v>8557.1</v>
+        <v>3023.9960000000001</v>
       </c>
       <c r="P40">
-        <v>5522.3</v>
+        <v>1310</v>
       </c>
       <c r="Q40">
-        <v>5.5</v>
+        <v>239.203</v>
       </c>
       <c r="R40">
-        <v>44043</v>
+        <v>40390</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>8345.2000000000007</v>
+        <v>5395.1080000000002</v>
       </c>
       <c r="U40">
-        <v>396.6</v>
+        <v>522.77300000000002</v>
       </c>
       <c r="V40">
-        <v>409</v>
+        <v>-27.238</v>
       </c>
       <c r="W40">
-        <v>-100.1</v>
+        <v>-47.594000000000001</v>
       </c>
       <c r="X40">
-        <v>-357.3</v>
+        <v>350.911</v>
       </c>
       <c r="Y40">
-        <v>115.7</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>-57.036999999999999</v>
       </c>
       <c r="AA40">
-        <v>237</v>
+        <v>102.881</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44135</v>
+        <v>40482</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>230.8</v>
+        <v>149.726</v>
       </c>
       <c r="D41">
-        <v>2034</v>
+        <v>1278.913</v>
       </c>
       <c r="E41">
-        <v>577</v>
+        <v>415.82600000000002</v>
       </c>
       <c r="F41">
-        <v>818.2</v>
+        <v>506.74200000000002</v>
       </c>
       <c r="G41">
-        <v>2067.1</v>
+        <v>1854.1859999999999</v>
       </c>
       <c r="H41">
-        <v>16929.7</v>
+        <v>8553.35</v>
       </c>
       <c r="I41">
-        <v>857.2</v>
+        <v>194.19399999999999</v>
       </c>
       <c r="J41">
-        <v>3914.5</v>
+        <v>1300</v>
       </c>
       <c r="K41">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2692.8</v>
+        <v>476.91899999999998</v>
       </c>
       <c r="O41">
-        <v>8414.7000000000007</v>
+        <v>3049.3409999999999</v>
       </c>
       <c r="P41">
-        <v>5298</v>
+        <v>1300</v>
       </c>
       <c r="Q41">
+        <v>-35.31</v>
+      </c>
+      <c r="R41">
+        <v>40482</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>5504.009</v>
+      </c>
+      <c r="U41">
+        <v>487.46300000000002</v>
+      </c>
+      <c r="V41">
+        <v>46.783999999999999</v>
+      </c>
+      <c r="W41">
+        <v>-47.738999999999997</v>
+      </c>
+      <c r="X41">
+        <v>-56.814999999999998</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
         <v>9</v>
       </c>
-      <c r="R41">
-        <v>44135</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <v>8515</v>
-      </c>
-      <c r="U41">
-        <v>405.6</v>
-      </c>
-      <c r="V41">
-        <v>378.7</v>
-      </c>
-      <c r="W41">
-        <v>-102.3</v>
-      </c>
-      <c r="X41">
-        <v>-318.5</v>
-      </c>
-      <c r="Y41">
-        <v>108.6</v>
-      </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
       <c r="AA41">
-        <v>230.8</v>
+        <v>149.726</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44227</v>
+        <v>40574</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>131.995</v>
+      </c>
+      <c r="D42">
+        <v>1312.3510000000001</v>
+      </c>
+      <c r="E42">
+        <v>289.548</v>
+      </c>
+      <c r="F42">
+        <v>491.26499999999999</v>
+      </c>
+      <c r="G42">
+        <v>1689.06</v>
+      </c>
+      <c r="H42">
+        <v>8358.7479999999996</v>
+      </c>
+      <c r="I42">
+        <v>174.88200000000001</v>
+      </c>
+      <c r="J42">
+        <v>1300</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>422.75700000000001</v>
+      </c>
+      <c r="O42">
+        <v>2995.4470000000001</v>
+      </c>
+      <c r="P42">
+        <v>1300</v>
+      </c>
+      <c r="Q42">
+        <v>62.12</v>
+      </c>
+      <c r="R42">
+        <v>40574</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>5363.3010000000004</v>
+      </c>
+      <c r="U42">
+        <v>549.58299999999997</v>
+      </c>
+      <c r="V42">
+        <v>374.834</v>
+      </c>
+      <c r="W42">
+        <v>-47.731999999999999</v>
+      </c>
+      <c r="X42">
+        <v>-279.52800000000002</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>9.5</v>
+      </c>
+      <c r="AA42">
+        <v>131.995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40663</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>94.88</v>
+      </c>
+      <c r="D43">
+        <v>1187.1669999999999</v>
+      </c>
+      <c r="E43">
+        <v>344.41</v>
+      </c>
+      <c r="F43">
+        <v>436.71100000000001</v>
+      </c>
+      <c r="G43">
+        <v>1636.999</v>
+      </c>
+      <c r="H43">
+        <v>8324.5849999999991</v>
+      </c>
+      <c r="I43">
+        <v>234.916</v>
+      </c>
+      <c r="J43">
+        <v>1305.423</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>482.67599999999999</v>
+      </c>
+      <c r="O43">
+        <v>3032.2220000000002</v>
+      </c>
+      <c r="P43">
+        <v>1305.423</v>
+      </c>
+      <c r="Q43">
+        <v>-229.738</v>
+      </c>
+      <c r="R43">
+        <v>40663</v>
+      </c>
+      <c r="S43">
+        <v>4500</v>
+      </c>
+      <c r="T43">
+        <v>5292.3630000000003</v>
+      </c>
+      <c r="U43">
+        <v>319.84500000000003</v>
+      </c>
+      <c r="V43">
+        <v>-2.8180000000000001</v>
+      </c>
+      <c r="W43">
+        <v>-50.959000000000003</v>
+      </c>
+      <c r="X43">
+        <v>-184.98699999999999</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>20</v>
+      </c>
+      <c r="AA43">
+        <v>94.88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40755</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>111.523</v>
+      </c>
+      <c r="D44">
+        <v>1188.883</v>
+      </c>
+      <c r="E44">
+        <v>350.29300000000001</v>
+      </c>
+      <c r="F44">
+        <v>441.51</v>
+      </c>
+      <c r="G44">
+        <v>1739.7719999999999</v>
+      </c>
+      <c r="H44">
+        <v>8782.0229999999992</v>
+      </c>
+      <c r="I44">
+        <v>288.08199999999999</v>
+      </c>
+      <c r="J44">
+        <v>1318.489</v>
+      </c>
+      <c r="K44">
+        <v>306.7</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>875.23400000000004</v>
+      </c>
+      <c r="O44">
+        <v>3433.7689999999998</v>
+      </c>
+      <c r="P44">
+        <v>1625.1890000000001</v>
+      </c>
+      <c r="Q44">
+        <v>-217.37</v>
+      </c>
+      <c r="R44">
+        <v>40755</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>5348.2539999999999</v>
+      </c>
+      <c r="U44">
+        <v>102.47499999999999</v>
+      </c>
+      <c r="V44">
+        <v>-58.238</v>
+      </c>
+      <c r="W44">
+        <v>-50.158999999999999</v>
+      </c>
+      <c r="X44">
+        <v>253.93199999999999</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="AA44">
+        <v>111.523</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40847</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>127.247</v>
+      </c>
+      <c r="D45">
+        <v>1513.905</v>
+      </c>
+      <c r="E45">
+        <v>462.16899999999998</v>
+      </c>
+      <c r="F45">
+        <v>511.38799999999998</v>
+      </c>
+      <c r="G45">
+        <v>2193.7069999999999</v>
+      </c>
+      <c r="H45">
+        <v>9215.42</v>
+      </c>
+      <c r="I45">
+        <v>260.65300000000002</v>
+      </c>
+      <c r="J45">
+        <v>2071.8519999999999</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>544.92100000000005</v>
+      </c>
+      <c r="O45">
+        <v>3852.0709999999999</v>
+      </c>
+      <c r="P45">
+        <v>2071.8519999999999</v>
+      </c>
+      <c r="Q45">
+        <v>393.81299999999999</v>
+      </c>
+      <c r="R45">
+        <v>40847</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>5363.3490000000002</v>
+      </c>
+      <c r="U45">
+        <v>496.28800000000001</v>
+      </c>
+      <c r="V45">
+        <v>118.172</v>
+      </c>
+      <c r="W45">
+        <v>-54.665999999999997</v>
+      </c>
+      <c r="X45">
+        <v>340.62799999999999</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>127.247</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40939</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>116.84399999999999</v>
+      </c>
+      <c r="D46">
+        <v>1467.6410000000001</v>
+      </c>
+      <c r="E46">
+        <v>364.72399999999999</v>
+      </c>
+      <c r="F46">
+        <v>478.81599999999997</v>
+      </c>
+      <c r="G46">
+        <v>1805.9929999999999</v>
+      </c>
+      <c r="H46">
+        <v>9235.8739999999998</v>
+      </c>
+      <c r="I46">
+        <v>232.41499999999999</v>
+      </c>
+      <c r="J46">
+        <v>2071.2020000000002</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>494.33499999999998</v>
+      </c>
+      <c r="O46">
+        <v>3851.7339999999999</v>
+      </c>
+      <c r="P46">
+        <v>2071.2020000000002</v>
+      </c>
+      <c r="Q46">
+        <v>-125.86</v>
+      </c>
+      <c r="R46">
+        <v>40939</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>5384.14</v>
+      </c>
+      <c r="U46">
+        <v>370.428</v>
+      </c>
+      <c r="V46">
+        <v>409.30500000000001</v>
+      </c>
+      <c r="W46">
+        <v>-54.564</v>
+      </c>
+      <c r="X46">
+        <v>-97.106999999999999</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>116.84399999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41029</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>104.086</v>
+      </c>
+      <c r="D47">
+        <v>1355.3710000000001</v>
+      </c>
+      <c r="E47">
+        <v>347.5</v>
+      </c>
+      <c r="F47">
+        <v>456.68599999999998</v>
+      </c>
+      <c r="G47">
+        <v>1643.5</v>
+      </c>
+      <c r="H47">
+        <v>9115.2000000000007</v>
+      </c>
+      <c r="I47">
+        <v>274.7</v>
+      </c>
+      <c r="J47">
+        <v>2020.5</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>616.9</v>
+      </c>
+      <c r="O47">
+        <v>3951.8</v>
+      </c>
+      <c r="P47">
+        <v>2070.5</v>
+      </c>
+      <c r="Q47">
+        <v>-140.68299999999999</v>
+      </c>
+      <c r="R47">
+        <v>41029</v>
+      </c>
+      <c r="S47">
+        <v>4850</v>
+      </c>
+      <c r="T47">
+        <v>5163.3999999999996</v>
+      </c>
+      <c r="U47">
+        <v>229.7</v>
+      </c>
+      <c r="V47">
+        <v>261.661</v>
+      </c>
+      <c r="W47">
+        <v>-54.311</v>
+      </c>
+      <c r="X47">
+        <v>-277.85300000000001</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-35.9</v>
+      </c>
+      <c r="AA47">
+        <v>104.086</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41121</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>110.9</v>
+      </c>
+      <c r="D48">
+        <v>1369.7</v>
+      </c>
+      <c r="E48">
+        <v>390.92399999999998</v>
+      </c>
+      <c r="F48">
+        <v>473.8</v>
+      </c>
+      <c r="G48">
+        <v>1800.328</v>
+      </c>
+      <c r="H48">
+        <v>9262.11</v>
+      </c>
+      <c r="I48">
+        <v>283.20100000000002</v>
+      </c>
+      <c r="J48">
+        <v>2019.875</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>710.46900000000005</v>
+      </c>
+      <c r="O48">
+        <v>4038.6570000000002</v>
+      </c>
+      <c r="P48">
+        <v>2069.875</v>
+      </c>
+      <c r="Q48">
+        <v>81.8</v>
+      </c>
+      <c r="R48">
+        <v>41121</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>5223.4530000000004</v>
+      </c>
+      <c r="U48">
+        <v>311.47399999999999</v>
+      </c>
+      <c r="V48">
+        <v>176.7</v>
+      </c>
+      <c r="W48">
+        <v>-52.8</v>
+      </c>
+      <c r="X48">
+        <v>-64.599999999999994</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>110.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41213</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>148.80000000000001</v>
+      </c>
+      <c r="D49">
+        <v>1628.7</v>
+      </c>
+      <c r="E49">
+        <v>469.36700000000002</v>
+      </c>
+      <c r="F49">
+        <v>544.29999999999995</v>
+      </c>
+      <c r="G49">
+        <v>1736.0619999999999</v>
+      </c>
+      <c r="H49">
+        <v>9188.7530000000006</v>
+      </c>
+      <c r="I49">
+        <v>290.05399999999997</v>
+      </c>
+      <c r="J49">
+        <v>2019.1959999999999</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>706.06600000000003</v>
+      </c>
+      <c r="O49">
+        <v>4036.0059999999999</v>
+      </c>
+      <c r="P49">
+        <v>2069.1959999999999</v>
+      </c>
+      <c r="Q49">
+        <v>-107.9</v>
+      </c>
+      <c r="R49">
+        <v>41213</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>5152.7470000000003</v>
+      </c>
+      <c r="U49">
+        <v>203.55500000000001</v>
+      </c>
+      <c r="V49">
+        <v>182.9</v>
+      </c>
+      <c r="W49">
+        <v>-57.4</v>
+      </c>
+      <c r="X49">
+        <v>-227.7</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>148.80000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41305</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>154.19999999999999</v>
+      </c>
+      <c r="D50">
+        <v>1559.6</v>
+      </c>
+      <c r="E50">
+        <v>360.20499999999998</v>
+      </c>
+      <c r="F50">
+        <v>537.4</v>
+      </c>
+      <c r="G50">
+        <v>1745.9449999999999</v>
+      </c>
+      <c r="H50">
+        <v>9184.4539999999997</v>
+      </c>
+      <c r="I50">
+        <v>251.584</v>
+      </c>
+      <c r="J50">
+        <v>2018.508</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>593.46299999999997</v>
+      </c>
+      <c r="O50">
+        <v>3924.2179999999998</v>
+      </c>
+      <c r="P50">
+        <v>2068.5079999999998</v>
+      </c>
+      <c r="Q50">
+        <v>235.2</v>
+      </c>
+      <c r="R50">
+        <v>41305</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>5260.2359999999999</v>
+      </c>
+      <c r="U50">
+        <v>438.81400000000002</v>
+      </c>
+      <c r="V50">
+        <v>324</v>
+      </c>
+      <c r="W50">
+        <v>-56.3</v>
+      </c>
+      <c r="X50">
+        <v>-54.9</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>154.19999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41394</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="D51">
+        <v>1339.7</v>
+      </c>
+      <c r="E51">
+        <v>313.7</v>
+      </c>
+      <c r="F51">
+        <v>483.6</v>
+      </c>
+      <c r="G51">
+        <v>1595.2</v>
+      </c>
+      <c r="H51">
+        <v>9031.7999999999993</v>
+      </c>
+      <c r="I51">
+        <v>285.8</v>
+      </c>
+      <c r="J51">
+        <v>1967.8</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>596.79999999999995</v>
+      </c>
+      <c r="O51">
+        <v>3883</v>
+      </c>
+      <c r="P51">
+        <v>2017.8</v>
+      </c>
+      <c r="Q51">
+        <v>-182.4</v>
+      </c>
+      <c r="R51">
+        <v>41394</v>
+      </c>
+      <c r="S51">
+        <v>4875</v>
+      </c>
+      <c r="T51">
+        <v>5148.8</v>
+      </c>
+      <c r="U51">
+        <v>256.39999999999998</v>
+      </c>
+      <c r="V51">
+        <v>172.2</v>
+      </c>
+      <c r="W51">
+        <v>-56.3</v>
+      </c>
+      <c r="X51">
+        <v>-293.8</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>130.30000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41486</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>126.6</v>
+      </c>
+      <c r="D52">
+        <v>1350.9</v>
+      </c>
+      <c r="E52">
+        <v>357.3</v>
+      </c>
+      <c r="F52">
+        <v>494.3</v>
+      </c>
+      <c r="G52">
+        <v>1629.9</v>
+      </c>
+      <c r="H52">
+        <v>9033.9</v>
+      </c>
+      <c r="I52">
+        <v>264.8</v>
+      </c>
+      <c r="J52">
+        <v>1867.1</v>
+      </c>
+      <c r="K52">
+        <v>85</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>803.1</v>
+      </c>
+      <c r="O52">
+        <v>3958.8</v>
+      </c>
+      <c r="P52">
+        <v>2102.1</v>
+      </c>
+      <c r="Q52">
+        <v>-98.9</v>
+      </c>
+      <c r="R52">
+        <v>41486</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>5075.1000000000004</v>
+      </c>
+      <c r="U52">
+        <v>157.5</v>
+      </c>
+      <c r="V52">
+        <v>82.1</v>
+      </c>
+      <c r="W52">
+        <v>-55.4</v>
+      </c>
+      <c r="X52">
+        <v>-135.6</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>126.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41578</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>153.4</v>
+      </c>
+      <c r="D53">
+        <v>1559.9</v>
+      </c>
+      <c r="E53">
+        <v>464.2</v>
+      </c>
+      <c r="F53">
+        <v>554.9</v>
+      </c>
+      <c r="G53">
+        <v>1762.3</v>
+      </c>
+      <c r="H53">
+        <v>9246</v>
+      </c>
+      <c r="I53">
+        <v>261.60000000000002</v>
+      </c>
+      <c r="J53">
+        <v>1884.6</v>
+      </c>
+      <c r="K53">
+        <v>207</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>896</v>
+      </c>
+      <c r="O53">
+        <v>4078.1</v>
+      </c>
+      <c r="P53">
+        <v>2241.6</v>
+      </c>
+      <c r="Q53">
+        <v>-7</v>
+      </c>
+      <c r="R53">
+        <v>41578</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>5167.8999999999996</v>
+      </c>
+      <c r="U53">
+        <v>150.5</v>
+      </c>
+      <c r="V53">
+        <v>85.9</v>
+      </c>
+      <c r="W53">
+        <v>-61</v>
+      </c>
+      <c r="X53">
+        <v>59.7</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>153.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41670</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>166.7</v>
+      </c>
+      <c r="D54">
+        <v>1465.5</v>
+      </c>
+      <c r="E54">
+        <v>365.2</v>
+      </c>
+      <c r="F54">
+        <v>546.79999999999995</v>
+      </c>
+      <c r="G54">
+        <v>1508.1</v>
+      </c>
+      <c r="H54">
+        <v>8989</v>
+      </c>
+      <c r="I54">
+        <v>220.2</v>
+      </c>
+      <c r="J54">
+        <v>1879.4</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>608.29999999999995</v>
+      </c>
+      <c r="O54">
+        <v>3784.2</v>
+      </c>
+      <c r="P54">
+        <v>2029.4</v>
+      </c>
+      <c r="Q54">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="R54">
+        <v>41670</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>5204.8</v>
+      </c>
+      <c r="U54">
+        <v>168.6</v>
+      </c>
+      <c r="V54">
+        <v>421.1</v>
+      </c>
+      <c r="W54">
+        <v>-61</v>
+      </c>
+      <c r="X54">
+        <v>-329.3</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>166.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41759</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>118.5</v>
+      </c>
+      <c r="D55">
+        <v>1234.3</v>
+      </c>
+      <c r="E55">
+        <v>309.39999999999998</v>
+      </c>
+      <c r="F55">
+        <v>444.6</v>
+      </c>
+      <c r="G55">
+        <v>1539.1</v>
+      </c>
+      <c r="H55">
+        <v>9060.2000000000007</v>
+      </c>
+      <c r="I55">
+        <v>289.2</v>
+      </c>
+      <c r="J55">
+        <v>1876.2</v>
+      </c>
+      <c r="K55">
+        <v>243.2</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>885.8</v>
+      </c>
+      <c r="O55">
+        <v>4030.6</v>
+      </c>
+      <c r="P55">
+        <v>2219.4</v>
+      </c>
+      <c r="Q55">
+        <v>-15.1</v>
+      </c>
+      <c r="R55">
+        <v>41759</v>
+      </c>
+      <c r="S55">
+        <v>4775</v>
+      </c>
+      <c r="T55">
+        <v>5029.6000000000004</v>
+      </c>
+      <c r="U55">
+        <v>153.5</v>
+      </c>
+      <c r="V55">
+        <v>266.89999999999998</v>
+      </c>
+      <c r="W55">
+        <v>-60.6</v>
+      </c>
+      <c r="X55">
+        <v>-170.3</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>10</v>
+      </c>
+      <c r="AA55">
+        <v>118.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41851</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>116</v>
+      </c>
+      <c r="D56">
+        <v>1323.8</v>
+      </c>
+      <c r="E56">
+        <v>392.5</v>
+      </c>
+      <c r="F56">
+        <v>479.1</v>
+      </c>
+      <c r="G56">
+        <v>1728.2</v>
+      </c>
+      <c r="H56">
+        <v>9250.2000000000007</v>
+      </c>
+      <c r="I56">
+        <v>279.39999999999998</v>
+      </c>
+      <c r="J56">
+        <v>1881.1</v>
+      </c>
+      <c r="K56">
+        <v>470</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>-100</v>
+      </c>
+      <c r="N56">
+        <v>1019.3</v>
+      </c>
+      <c r="O56">
+        <v>4165.8</v>
+      </c>
+      <c r="P56">
+        <v>2351.1</v>
+      </c>
+      <c r="Q56">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="R56">
+        <v>41851</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>5084.3999999999996</v>
+      </c>
+      <c r="U56">
+        <v>149.4</v>
+      </c>
+      <c r="V56">
+        <v>-8.1</v>
+      </c>
+      <c r="W56">
+        <v>-58.9</v>
+      </c>
+      <c r="X56">
+        <v>59.9</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41943</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="D57">
+        <v>1481.8</v>
+      </c>
+      <c r="E57">
+        <v>453.2</v>
+      </c>
+      <c r="F57">
+        <v>536.79999999999995</v>
+      </c>
+      <c r="G57">
+        <v>1725.8</v>
+      </c>
+      <c r="H57">
+        <v>9334.7999999999993</v>
+      </c>
+      <c r="I57">
+        <v>251.3</v>
+      </c>
+      <c r="J57">
+        <v>1890.8</v>
+      </c>
+      <c r="K57">
+        <v>545.9</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1004.1</v>
+      </c>
+      <c r="O57">
+        <v>4169.8</v>
+      </c>
+      <c r="P57">
+        <v>2436.6999999999998</v>
+      </c>
+      <c r="Q57">
+        <v>-44.1</v>
+      </c>
+      <c r="R57">
+        <v>41943</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>5165</v>
+      </c>
+      <c r="U57">
+        <v>105.3</v>
+      </c>
+      <c r="V57">
+        <v>92</v>
+      </c>
+      <c r="W57">
+        <v>-65</v>
+      </c>
+      <c r="X57">
+        <v>11.8</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>158.30000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42035</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>160.9</v>
+      </c>
+      <c r="D58">
+        <v>1440</v>
+      </c>
+      <c r="E58">
+        <v>373.9</v>
+      </c>
+      <c r="F58">
+        <v>523.29999999999995</v>
+      </c>
+      <c r="G58">
+        <v>1515.6</v>
+      </c>
+      <c r="H58">
+        <v>9095.6</v>
+      </c>
+      <c r="I58">
+        <v>232.3</v>
+      </c>
+      <c r="J58">
+        <v>1891.8</v>
+      </c>
+      <c r="K58">
+        <v>264</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>710.1</v>
+      </c>
+      <c r="O58">
+        <v>3871.4</v>
+      </c>
+      <c r="P58">
+        <v>2179.8000000000002</v>
+      </c>
+      <c r="Q58">
+        <v>6.4</v>
+      </c>
+      <c r="R58">
+        <v>42035</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>5224.2</v>
+      </c>
+      <c r="U58">
+        <v>111.7</v>
+      </c>
+      <c r="V58">
+        <v>427.7</v>
+      </c>
+      <c r="W58">
+        <v>-65.099999999999994</v>
+      </c>
+      <c r="X58">
+        <v>-350.1</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>160.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42124</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>-90.3</v>
+      </c>
+      <c r="D59">
+        <v>1447.1</v>
+      </c>
+      <c r="E59">
+        <v>430.1</v>
+      </c>
+      <c r="F59">
+        <v>482.7</v>
+      </c>
+      <c r="G59">
+        <v>1983.9</v>
+      </c>
+      <c r="H59">
+        <v>16806.3</v>
+      </c>
+      <c r="I59">
+        <v>402.8</v>
+      </c>
+      <c r="J59">
+        <v>5944.9</v>
+      </c>
+      <c r="K59">
+        <v>226</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1022.6</v>
+      </c>
+      <c r="O59">
+        <v>9719.4</v>
+      </c>
+      <c r="P59">
+        <v>6170.9</v>
+      </c>
+      <c r="Q59">
+        <v>13.9</v>
+      </c>
+      <c r="R59">
+        <v>42124</v>
+      </c>
+      <c r="S59">
+        <v>7370</v>
+      </c>
+      <c r="T59">
+        <v>7086.9</v>
+      </c>
+      <c r="U59">
+        <v>125.6</v>
+      </c>
+      <c r="V59">
+        <v>221.6</v>
+      </c>
+      <c r="W59">
+        <v>-65</v>
+      </c>
+      <c r="X59">
+        <v>1141.5999999999999</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>-90.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42216</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>136.4</v>
+      </c>
+      <c r="D60">
+        <v>1952</v>
+      </c>
+      <c r="E60">
+        <v>507.9</v>
+      </c>
+      <c r="F60">
+        <v>731.8</v>
+      </c>
+      <c r="G60">
+        <v>2025.5</v>
+      </c>
+      <c r="H60">
+        <v>16758.400000000001</v>
+      </c>
+      <c r="I60">
+        <v>347.1</v>
+      </c>
+      <c r="J60">
+        <v>5694.7</v>
+      </c>
+      <c r="K60">
+        <v>302.60000000000002</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>-250</v>
+      </c>
+      <c r="N60">
+        <v>1059.0999999999999</v>
+      </c>
+      <c r="O60">
+        <v>9628.4</v>
+      </c>
+      <c r="P60">
+        <v>5997.3</v>
+      </c>
+      <c r="Q60">
+        <v>8</v>
+      </c>
+      <c r="R60">
+        <v>42216</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>7130</v>
+      </c>
+      <c r="U60">
+        <v>133.6</v>
+      </c>
+      <c r="V60">
+        <v>307</v>
+      </c>
+      <c r="W60">
+        <v>-76.400000000000006</v>
+      </c>
+      <c r="X60">
+        <v>-256.2</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>136.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42308</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>176</v>
+      </c>
+      <c r="D61">
+        <v>2077.6999999999998</v>
+      </c>
+      <c r="E61">
+        <v>605.4</v>
+      </c>
+      <c r="F61">
+        <v>790.3</v>
+      </c>
+      <c r="G61">
+        <v>2006</v>
+      </c>
+      <c r="H61">
+        <v>16694.8</v>
+      </c>
+      <c r="I61">
+        <v>341.4</v>
+      </c>
+      <c r="J61">
+        <v>5494.5</v>
+      </c>
+      <c r="K61">
+        <v>370</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1132.7</v>
+      </c>
+      <c r="O61">
+        <v>9461.6</v>
+      </c>
+      <c r="P61">
+        <v>5864.5</v>
+      </c>
+      <c r="Q61">
+        <v>5.4</v>
+      </c>
+      <c r="R61">
+        <v>42308</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>7233.2</v>
+      </c>
+      <c r="U61">
+        <v>139</v>
+      </c>
+      <c r="V61">
+        <v>275.5</v>
+      </c>
+      <c r="W61">
+        <v>-80.099999999999994</v>
+      </c>
+      <c r="X61">
+        <v>-213.2</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42400</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>185.3</v>
+      </c>
+      <c r="D62">
+        <v>1973.9</v>
+      </c>
+      <c r="E62">
+        <v>503.8</v>
+      </c>
+      <c r="F62">
+        <v>766.9</v>
+      </c>
+      <c r="G62">
+        <v>1798.4</v>
+      </c>
+      <c r="H62">
+        <v>16281.5</v>
+      </c>
+      <c r="I62">
+        <v>371</v>
+      </c>
+      <c r="J62">
+        <v>5146.3</v>
+      </c>
+      <c r="K62">
+        <v>138</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1006</v>
+      </c>
+      <c r="O62">
+        <v>8956</v>
+      </c>
+      <c r="P62">
+        <v>5284.3</v>
+      </c>
+      <c r="Q62">
+        <v>1.5</v>
+      </c>
+      <c r="R62">
+        <v>42400</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>7325.5</v>
+      </c>
+      <c r="U62">
+        <v>140.5</v>
+      </c>
+      <c r="V62">
+        <v>542.29999999999995</v>
+      </c>
+      <c r="W62">
+        <v>-80</v>
+      </c>
+      <c r="X62">
+        <v>-662.3</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-16</v>
+      </c>
+      <c r="AA62">
+        <v>185.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42490</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>191</v>
+      </c>
+      <c r="D63">
+        <v>1807.6</v>
+      </c>
+      <c r="E63">
+        <v>450.1</v>
+      </c>
+      <c r="F63">
+        <v>691</v>
+      </c>
+      <c r="G63">
+        <v>1573.4</v>
+      </c>
+      <c r="H63">
+        <v>15984.1</v>
+      </c>
+      <c r="I63">
+        <v>459.4</v>
+      </c>
+      <c r="J63">
+        <v>5146</v>
+      </c>
+      <c r="K63">
+        <v>284</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1213</v>
+      </c>
+      <c r="O63">
+        <v>8975.6</v>
+      </c>
+      <c r="P63">
+        <v>5430</v>
+      </c>
+      <c r="Q63">
+        <v>-30.7</v>
+      </c>
+      <c r="R63">
+        <v>42490</v>
+      </c>
+      <c r="S63">
+        <v>6910</v>
+      </c>
+      <c r="T63">
+        <v>7008.5</v>
+      </c>
+      <c r="U63">
+        <v>109.8</v>
+      </c>
+      <c r="V63">
+        <v>336.2</v>
+      </c>
+      <c r="W63">
+        <v>-80.099999999999994</v>
+      </c>
+      <c r="X63">
+        <v>-367.2</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42582</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>170</v>
+      </c>
+      <c r="D64">
+        <v>1815.8</v>
+      </c>
+      <c r="E64">
+        <v>523</v>
+      </c>
+      <c r="F64">
+        <v>726.7</v>
+      </c>
+      <c r="G64">
+        <v>1740.7</v>
+      </c>
+      <c r="H64">
+        <v>16061.8</v>
+      </c>
+      <c r="I64">
+        <v>452</v>
+      </c>
+      <c r="J64">
+        <v>5045.7</v>
+      </c>
+      <c r="K64">
+        <v>306</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>-100</v>
+      </c>
+      <c r="N64">
+        <v>1288.4000000000001</v>
+      </c>
+      <c r="O64">
+        <v>8965.9</v>
+      </c>
+      <c r="P64">
+        <v>5351.7</v>
+      </c>
+      <c r="Q64">
+        <v>-0.2</v>
+      </c>
+      <c r="R64">
+        <v>42582</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>7095.9</v>
+      </c>
+      <c r="U64">
+        <v>109.6</v>
+      </c>
+      <c r="V64">
+        <v>238.9</v>
+      </c>
+      <c r="W64">
+        <v>-77.8</v>
+      </c>
+      <c r="X64">
+        <v>-173.2</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42674</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>177.3</v>
+      </c>
+      <c r="D65">
+        <v>1913.9</v>
+      </c>
+      <c r="E65">
+        <v>517.79999999999995</v>
+      </c>
+      <c r="F65">
+        <v>743.2</v>
+      </c>
+      <c r="G65">
+        <v>1805.2</v>
+      </c>
+      <c r="H65">
+        <v>16058.2</v>
+      </c>
+      <c r="I65">
+        <v>435.8</v>
+      </c>
+      <c r="J65">
+        <v>4945.3999999999996</v>
+      </c>
+      <c r="K65">
+        <v>406</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1306.3</v>
+      </c>
+      <c r="O65">
+        <v>8878.1</v>
+      </c>
+      <c r="P65">
+        <v>5351.4</v>
+      </c>
+      <c r="Q65">
+        <v>12.2</v>
+      </c>
+      <c r="R65">
+        <v>42674</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>7180.1</v>
+      </c>
+      <c r="U65">
+        <v>121.8</v>
+      </c>
+      <c r="V65">
+        <v>136.4</v>
+      </c>
+      <c r="W65">
+        <v>-87.1</v>
+      </c>
+      <c r="X65">
+        <v>-87.9</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>177.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42766</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>134.6</v>
+      </c>
+      <c r="D66">
+        <v>1878.8</v>
+      </c>
+      <c r="E66">
+        <v>421.4</v>
+      </c>
+      <c r="F66">
+        <v>723.4</v>
+      </c>
+      <c r="G66">
+        <v>1690.9</v>
+      </c>
+      <c r="H66">
+        <v>15811.7</v>
+      </c>
+      <c r="I66">
+        <v>428.5</v>
+      </c>
+      <c r="J66">
+        <v>4945</v>
+      </c>
+      <c r="K66">
+        <v>142</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>997.2</v>
+      </c>
+      <c r="O66">
+        <v>8569.7999999999993</v>
+      </c>
+      <c r="P66">
+        <v>5087</v>
+      </c>
+      <c r="Q66">
+        <v>17.8</v>
+      </c>
+      <c r="R66">
+        <v>42766</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>7241.9</v>
+      </c>
+      <c r="U66">
+        <v>139.6</v>
+      </c>
+      <c r="V66">
+        <v>419.5</v>
+      </c>
+      <c r="W66">
+        <v>-87.2</v>
+      </c>
+      <c r="X66">
+        <v>-351.3</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>134.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42855</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>110.4</v>
+      </c>
+      <c r="D67">
+        <v>1783.8</v>
+      </c>
+      <c r="E67">
+        <v>438.7</v>
+      </c>
+      <c r="F67">
+        <v>647.70000000000005</v>
+      </c>
+      <c r="G67">
+        <v>1641.8</v>
+      </c>
+      <c r="H67">
+        <v>15639.7</v>
+      </c>
+      <c r="I67">
+        <v>477.2</v>
+      </c>
+      <c r="J67">
+        <v>4445.5</v>
+      </c>
+      <c r="K67">
+        <v>454</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1832.6</v>
+      </c>
+      <c r="O67">
+        <v>8789.5</v>
+      </c>
+      <c r="P67">
+        <v>5398.5</v>
+      </c>
+      <c r="Q67">
+        <v>27.2</v>
+      </c>
+      <c r="R67">
+        <v>42855</v>
+      </c>
+      <c r="S67">
+        <v>7140</v>
+      </c>
+      <c r="T67">
+        <v>6850.2</v>
+      </c>
+      <c r="U67">
+        <v>166.8</v>
+      </c>
+      <c r="V67">
+        <v>264.2</v>
+      </c>
+      <c r="W67">
+        <v>-87.2</v>
+      </c>
+      <c r="X67">
+        <v>-193.7</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>40.6</v>
+      </c>
+      <c r="AA67">
+        <v>110.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42947</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>126.8</v>
+      </c>
+      <c r="D68">
+        <v>1748.9</v>
+      </c>
+      <c r="E68">
+        <v>433.7</v>
+      </c>
+      <c r="F68">
+        <v>662.8</v>
+      </c>
+      <c r="G68">
+        <v>1692.1</v>
+      </c>
+      <c r="H68">
+        <v>15641.6</v>
+      </c>
+      <c r="I68">
+        <v>477.6</v>
+      </c>
+      <c r="J68">
+        <v>4444.8</v>
+      </c>
+      <c r="K68">
+        <v>283.89999999999998</v>
+      </c>
+      <c r="L68">
+        <v>-170.1</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1750.9</v>
+      </c>
+      <c r="O68">
+        <v>8709.7000000000007</v>
+      </c>
+      <c r="P68">
+        <v>5228</v>
+      </c>
+      <c r="Q68">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R68">
+        <v>42947</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>6931.9</v>
+      </c>
+      <c r="U68">
+        <v>183.2</v>
+      </c>
+      <c r="V68">
+        <v>304.3</v>
+      </c>
+      <c r="W68">
+        <v>-84.9</v>
+      </c>
+      <c r="X68">
+        <v>-260.10000000000002</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>126.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43039</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>194.6</v>
+      </c>
+      <c r="D69">
+        <v>1923.6</v>
+      </c>
+      <c r="E69">
+        <v>481.6</v>
+      </c>
+      <c r="F69">
+        <v>755.9</v>
+      </c>
+      <c r="G69">
+        <v>1785.8</v>
+      </c>
+      <c r="H69">
+        <v>15702</v>
+      </c>
+      <c r="I69">
+        <v>507.4</v>
+      </c>
+      <c r="J69">
+        <v>4294.1000000000004</v>
+      </c>
+      <c r="K69">
+        <v>463.9</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1854.5</v>
+      </c>
+      <c r="O69">
+        <v>8665.7000000000007</v>
+      </c>
+      <c r="P69">
+        <v>5257.6</v>
+      </c>
+      <c r="Q69">
+        <v>-2.9</v>
+      </c>
+      <c r="R69">
+        <v>43039</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>7036.3</v>
+      </c>
+      <c r="U69">
+        <v>180.3</v>
+      </c>
+      <c r="V69">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="W69">
+        <v>-88.5</v>
+      </c>
+      <c r="X69">
+        <v>-61.1</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>194.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43131</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>831.3</v>
+      </c>
+      <c r="D70">
+        <v>1903.3</v>
+      </c>
+      <c r="E70">
+        <v>422.7</v>
+      </c>
+      <c r="F70">
+        <v>730.8</v>
+      </c>
+      <c r="G70">
+        <v>1609.9</v>
+      </c>
+      <c r="H70">
+        <v>15329.2</v>
+      </c>
+      <c r="I70">
+        <v>471.2</v>
+      </c>
+      <c r="J70">
+        <v>4688.5</v>
+      </c>
+      <c r="K70">
+        <v>254</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1089.9000000000001</v>
+      </c>
+      <c r="O70">
+        <v>7525</v>
+      </c>
+      <c r="P70">
+        <v>4942.5</v>
+      </c>
+      <c r="Q70">
+        <v>5.9</v>
+      </c>
+      <c r="R70">
+        <v>43131</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>7804.2</v>
+      </c>
+      <c r="U70">
+        <v>186.2</v>
+      </c>
+      <c r="V70">
+        <v>469</v>
+      </c>
+      <c r="W70">
+        <v>-88</v>
+      </c>
+      <c r="X70">
+        <v>-404</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>831.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43220</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>185.9</v>
+      </c>
+      <c r="D71">
+        <v>1781.3</v>
+      </c>
+      <c r="E71">
+        <v>385.6</v>
+      </c>
+      <c r="F71">
+        <v>690.5</v>
+      </c>
+      <c r="G71">
+        <v>1555</v>
+      </c>
+      <c r="H71">
+        <v>15301.2</v>
+      </c>
+      <c r="I71">
+        <v>512.1</v>
+      </c>
+      <c r="J71">
+        <v>4688</v>
+      </c>
+      <c r="K71">
+        <v>144</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1033.8</v>
+      </c>
+      <c r="O71">
+        <v>7410.1</v>
+      </c>
+      <c r="P71">
+        <v>4832</v>
+      </c>
+      <c r="Q71">
+        <v>6.4</v>
+      </c>
+      <c r="R71">
+        <v>43220</v>
+      </c>
+      <c r="S71">
+        <v>7000</v>
+      </c>
+      <c r="T71">
+        <v>7891.1</v>
+      </c>
+      <c r="U71">
+        <v>192.6</v>
+      </c>
+      <c r="V71">
+        <v>314.39999999999998</v>
+      </c>
+      <c r="W71">
+        <v>-88.9</v>
+      </c>
+      <c r="X71">
+        <v>-196.8</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>185.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43312</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>133</v>
+      </c>
+      <c r="D72">
+        <v>1902.5</v>
+      </c>
+      <c r="E72">
+        <v>504.2</v>
+      </c>
+      <c r="F72">
+        <v>678.2</v>
+      </c>
+      <c r="G72">
+        <v>1805.8</v>
+      </c>
+      <c r="H72">
+        <v>17513</v>
+      </c>
+      <c r="I72">
+        <v>532.1</v>
+      </c>
+      <c r="J72">
+        <v>6184.9</v>
+      </c>
+      <c r="K72">
+        <v>530</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1544</v>
+      </c>
+      <c r="O72">
+        <v>9582.2000000000007</v>
+      </c>
+      <c r="P72">
+        <v>6714.9</v>
+      </c>
+      <c r="Q72">
+        <v>-0.6</v>
+      </c>
+      <c r="R72">
+        <v>43312</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>7930.8</v>
+      </c>
+      <c r="U72">
+        <v>192</v>
+      </c>
+      <c r="V72">
+        <v>243</v>
+      </c>
+      <c r="W72">
+        <v>-88.4</v>
+      </c>
+      <c r="X72">
+        <v>1790.5</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43404</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>188.5</v>
+      </c>
+      <c r="D73">
+        <v>2021.5</v>
+      </c>
+      <c r="E73">
+        <v>561.9</v>
+      </c>
+      <c r="F73">
+        <v>771.3</v>
+      </c>
+      <c r="G73">
+        <v>1787.2</v>
+      </c>
+      <c r="H73">
+        <v>17174.2</v>
+      </c>
+      <c r="I73">
+        <v>552.4</v>
+      </c>
+      <c r="J73">
+        <v>5885.1</v>
+      </c>
+      <c r="K73">
+        <v>390</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1434.5</v>
+      </c>
+      <c r="O73">
+        <v>9144.2000000000007</v>
+      </c>
+      <c r="P73">
+        <v>6275.1</v>
+      </c>
+      <c r="Q73">
+        <v>-20.8</v>
+      </c>
+      <c r="R73">
+        <v>43404</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>8030</v>
+      </c>
+      <c r="U73">
+        <v>171.2</v>
+      </c>
+      <c r="V73">
+        <v>202.9</v>
+      </c>
+      <c r="W73">
+        <v>-96.5</v>
+      </c>
+      <c r="X73">
+        <v>-534.29999999999995</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>188.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43496</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>121.4</v>
+      </c>
+      <c r="D74">
+        <v>2011.9</v>
+      </c>
+      <c r="E74">
+        <v>502.6</v>
+      </c>
+      <c r="F74">
+        <v>773.8</v>
+      </c>
+      <c r="G74">
+        <v>1726.2</v>
+      </c>
+      <c r="H74">
+        <v>16927.599999999999</v>
+      </c>
+      <c r="I74">
+        <v>519.6</v>
+      </c>
+      <c r="J74">
+        <v>5323.4</v>
+      </c>
+      <c r="K74">
+        <v>504</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1816.4</v>
+      </c>
+      <c r="O74">
+        <v>8906</v>
+      </c>
+      <c r="P74">
+        <v>6126.7</v>
+      </c>
+      <c r="Q74">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="R74">
+        <v>43496</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>8021.6</v>
+      </c>
+      <c r="U74">
+        <v>206.5</v>
+      </c>
+      <c r="V74">
+        <v>421.1</v>
+      </c>
+      <c r="W74">
+        <v>-96.5</v>
+      </c>
+      <c r="X74">
+        <v>-282.60000000000002</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>121.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>71.5</v>
+      </c>
+      <c r="D75">
+        <v>1902.1</v>
+      </c>
+      <c r="E75">
+        <v>503.8</v>
+      </c>
+      <c r="F75">
+        <v>692.4</v>
+      </c>
+      <c r="G75">
+        <v>1625.2</v>
+      </c>
+      <c r="H75">
+        <v>16711.3</v>
+      </c>
+      <c r="I75">
+        <v>591</v>
+      </c>
+      <c r="J75">
+        <v>4686.3</v>
+      </c>
+      <c r="K75">
+        <v>426</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>2341.5</v>
+      </c>
+      <c r="O75">
+        <v>8740.7999999999993</v>
+      </c>
+      <c r="P75">
+        <v>5959.9</v>
+      </c>
+      <c r="Q75">
+        <v>-105.2</v>
+      </c>
+      <c r="R75">
+        <v>43585</v>
+      </c>
+      <c r="S75">
+        <v>7400</v>
+      </c>
+      <c r="T75">
+        <v>7970.5</v>
+      </c>
+      <c r="U75">
+        <v>101.3</v>
+      </c>
+      <c r="V75">
+        <v>274.2</v>
+      </c>
+      <c r="W75">
+        <v>-96.5</v>
+      </c>
+      <c r="X75">
+        <v>-274.60000000000002</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43677</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>154.6</v>
+      </c>
+      <c r="D76">
+        <v>1778.9</v>
+      </c>
+      <c r="E76">
+        <v>473.7</v>
+      </c>
+      <c r="F76">
+        <v>699.6</v>
+      </c>
+      <c r="G76">
+        <v>1613.5</v>
+      </c>
+      <c r="H76">
+        <v>16791.599999999999</v>
+      </c>
+      <c r="I76">
+        <v>503.1</v>
+      </c>
+      <c r="J76">
+        <v>4685.3</v>
+      </c>
+      <c r="K76">
+        <v>295.89999999999998</v>
+      </c>
+      <c r="L76">
+        <v>-130</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>2290.8000000000002</v>
+      </c>
+      <c r="O76">
+        <v>8783.9</v>
+      </c>
+      <c r="P76">
+        <v>6044.6</v>
+      </c>
+      <c r="Q76">
+        <v>-52.5</v>
+      </c>
+      <c r="R76">
+        <v>43677</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>8007.7</v>
+      </c>
+      <c r="U76">
+        <v>48.8</v>
+      </c>
+      <c r="V76">
+        <v>221.5</v>
+      </c>
+      <c r="W76">
+        <v>-96.5</v>
+      </c>
+      <c r="X76">
+        <v>-222.6</v>
+      </c>
+      <c r="Y76">
+        <v>116.6</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>154.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43769</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>211.2</v>
+      </c>
+      <c r="D77">
+        <v>1957.8</v>
+      </c>
+      <c r="E77">
+        <v>522.4</v>
+      </c>
+      <c r="F77">
+        <v>754</v>
+      </c>
+      <c r="G77">
+        <v>1659.2</v>
+      </c>
+      <c r="H77">
+        <v>16791</v>
+      </c>
+      <c r="I77">
+        <v>521.79999999999995</v>
+      </c>
+      <c r="J77">
+        <v>4584.5</v>
+      </c>
+      <c r="K77">
+        <v>327.9</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>2310.1</v>
+      </c>
+      <c r="O77">
+        <v>8695.7000000000007</v>
+      </c>
+      <c r="P77">
+        <v>6024.8</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>43769</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>8095.3</v>
+      </c>
+      <c r="U77">
+        <v>48.8</v>
+      </c>
+      <c r="V77">
+        <v>224</v>
+      </c>
+      <c r="W77">
+        <v>-100.1</v>
+      </c>
+      <c r="X77">
+        <v>-172.6</v>
+      </c>
+      <c r="Y77">
+        <v>119.9</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>211.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>187.4</v>
+      </c>
+      <c r="D78">
+        <v>1972.3</v>
+      </c>
+      <c r="E78">
+        <v>477.3</v>
+      </c>
+      <c r="F78">
+        <v>760</v>
+      </c>
+      <c r="G78">
+        <v>1602.7</v>
+      </c>
+      <c r="H78">
+        <v>16636.2</v>
+      </c>
+      <c r="I78">
+        <v>575</v>
+      </c>
+      <c r="J78">
+        <v>4583.3</v>
+      </c>
+      <c r="K78">
+        <v>310</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2077.4</v>
+      </c>
+      <c r="O78">
+        <v>8465.7999999999993</v>
+      </c>
+      <c r="P78">
+        <v>5743.1</v>
+      </c>
+      <c r="Q78">
+        <v>25.6</v>
+      </c>
+      <c r="R78">
+        <v>43861</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>8170.4</v>
+      </c>
+      <c r="U78">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="V78">
+        <v>521.6</v>
+      </c>
+      <c r="W78">
+        <v>-100.1</v>
+      </c>
+      <c r="X78">
+        <v>-420.9</v>
+      </c>
+      <c r="Y78">
+        <v>137.19999999999999</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>187.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>226.3</v>
+      </c>
+      <c r="D79">
+        <v>2092</v>
+      </c>
+      <c r="E79">
+        <v>551.4</v>
+      </c>
+      <c r="F79">
+        <v>788.4</v>
+      </c>
+      <c r="G79">
+        <v>1972.7</v>
+      </c>
+      <c r="H79">
+        <v>16970.400000000001</v>
+      </c>
+      <c r="I79">
+        <v>782</v>
+      </c>
+      <c r="J79">
+        <v>5373.3</v>
+      </c>
+      <c r="K79">
+        <v>248</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1587.1</v>
+      </c>
+      <c r="O79">
+        <v>8779.5</v>
+      </c>
+      <c r="P79">
+        <v>5783.5</v>
+      </c>
+      <c r="Q79">
+        <v>316.7</v>
+      </c>
+      <c r="R79">
+        <v>43951</v>
+      </c>
+      <c r="S79">
+        <v>7300</v>
+      </c>
+      <c r="T79">
+        <v>8190.9</v>
+      </c>
+      <c r="U79">
+        <v>391.1</v>
+      </c>
+      <c r="V79">
+        <v>287.7</v>
+      </c>
+      <c r="W79">
+        <v>-100.1</v>
+      </c>
+      <c r="X79">
+        <v>127.4</v>
+      </c>
+      <c r="Y79">
+        <v>123.5</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>226.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>237</v>
+      </c>
+      <c r="D80">
+        <v>1971.8</v>
+      </c>
+      <c r="E80">
+        <v>497.6</v>
+      </c>
+      <c r="F80">
+        <v>775.4</v>
+      </c>
+      <c r="G80">
+        <v>1984.8</v>
+      </c>
+      <c r="H80">
+        <v>16902.3</v>
+      </c>
+      <c r="I80">
+        <v>780.6</v>
+      </c>
+      <c r="J80">
+        <v>4672.8</v>
+      </c>
+      <c r="K80">
+        <v>296</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>-300</v>
+      </c>
+      <c r="N80">
+        <v>2073.1</v>
+      </c>
+      <c r="O80">
+        <v>8557.1</v>
+      </c>
+      <c r="P80">
+        <v>5522.3</v>
+      </c>
+      <c r="Q80">
+        <v>5.5</v>
+      </c>
+      <c r="R80">
+        <v>44043</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>8345.2000000000007</v>
+      </c>
+      <c r="U80">
+        <v>396.6</v>
+      </c>
+      <c r="V80">
+        <v>409</v>
+      </c>
+      <c r="W80">
+        <v>-100.1</v>
+      </c>
+      <c r="X80">
+        <v>-357.3</v>
+      </c>
+      <c r="Y80">
+        <v>115.7</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>230.8</v>
+      </c>
+      <c r="D81">
+        <v>2034</v>
+      </c>
+      <c r="E81">
+        <v>577</v>
+      </c>
+      <c r="F81">
+        <v>818.2</v>
+      </c>
+      <c r="G81">
+        <v>2067.1</v>
+      </c>
+      <c r="H81">
+        <v>16929.7</v>
+      </c>
+      <c r="I81">
+        <v>857.2</v>
+      </c>
+      <c r="J81">
+        <v>3914.5</v>
+      </c>
+      <c r="K81">
+        <v>280</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>2692.8</v>
+      </c>
+      <c r="O81">
+        <v>8414.7000000000007</v>
+      </c>
+      <c r="P81">
+        <v>5298</v>
+      </c>
+      <c r="Q81">
+        <v>9</v>
+      </c>
+      <c r="R81">
+        <v>44135</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>8515</v>
+      </c>
+      <c r="U81">
+        <v>405.6</v>
+      </c>
+      <c r="V81">
+        <v>378.7</v>
+      </c>
+      <c r="W81">
+        <v>-102.3</v>
+      </c>
+      <c r="X81">
+        <v>-318.5</v>
+      </c>
+      <c r="Y81">
+        <v>108.6</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>230.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44227</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>261.5</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>2076.6999999999998</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>604.9</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>809.4</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>2078.6999999999998</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>16429.400000000001</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>896.7</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>3915.3</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>166</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>2532.4</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>8217.7999999999993</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>5000.8</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>95.9</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44227</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>8211.6</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>501.5</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>486.3</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-102.4</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-914.8</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>122.9</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>261.5</v>
       </c>
     </row>
